--- a/TextPreprocessing.xlsx
+++ b/TextPreprocessing.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H408"/>
+  <dimension ref="A1:I408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,11 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>tweet_normalized</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>steeming</t>
         </is>
       </c>
@@ -519,6 +524,11 @@
         </is>
       </c>
       <c r="H2" t="inlineStr">
+        <is>
+          <t>['santai', 'gojek', 'chat', 'worst', 'case', 'tinggal', 'fitur', 'peduli', 'lindungi']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>['santai', 'gojek', 'chat', 'worst', 'case', 'tinggal', 'fitur', 'peduli', 'lindung']</t>
         </is>
@@ -558,7 +568,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['prifad', 'gua', 'naek', 'gojek', 'ye', 'moga', 'turun', 'bedua', 'udh', 'menang']</t>
+          <t>['prifad', 'gua', 'naik', 'gojek', 'ye', 'semoga', 'turun', 'berdua', 'sudah', 'menang']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['prifad', 'gua', 'naik', 'gojek', 'ye', 'moga', 'turun', 'dua', 'sudah', 'menang']</t>
         </is>
       </c>
     </row>
@@ -599,6 +614,11 @@
           <t>['gojek', 'gue', 'error']</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['gojek', 'gue', 'error']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -634,6 +654,11 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>['beralih', 'grab', 'user', 'gojek', 'yahudi', 'kaget', 'baso', 'biaya', 'hidup', 'daerah', 'murah', 'gelut']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>['alih', 'grab', 'user', 'gojek', 'yahudi', 'kaget', 'baso', 'biaya', 'hidup', 'daerah', 'murah', 'gelut']</t>
         </is>
       </c>
@@ -672,6 +697,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>['minggu', 'sepi', 'order', 'sesepi', 'gojek', 'food', 'cs', 'pesan', 'menit', 'order', 'jalan', 'jalan', 'kemana']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>['minggu', 'sepi', 'order', 'sep', 'gojek', 'food', 'cs', 'pesan', 'menit', 'order', 'jalan', 'jalan', 'mana']</t>
         </is>
       </c>
@@ -710,7 +740,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['nemu', 'gojek', 'dijkt', 'gin']</t>
+          <t>['nemu', 'gojek', 'dijakarta', 'begini']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['nemu', 'gojek', 'dijakarta', 'begini']</t>
         </is>
       </c>
     </row>
@@ -748,7 +783,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['knp', 'gojek', 'ku', 'promo', 'gofoodnya']</t>
+          <t>['kenapa', 'gojek', 'ku', 'promo', 'gofoodnya']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['kenapa', 'gojek', 'ku', 'promo', 'gofoodnya']</t>
         </is>
       </c>
     </row>
@@ -786,7 +826,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['kelas', 'uang', 'ongkos', 'angkot', 'iritt', 'gojek', 'uang', 'jajan', 'abis', 'bayar', 'gojek', 'sajaa', 'nanti']</t>
+          <t>['kelas', 'uang', 'ongkos', 'angkot', 'iritt', 'gojek', 'uang', 'jajan', 'habis', 'bayar', 'gojek', 'sajaa', 'nanti']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['kelas', 'uang', 'ongkos', 'angkot', 'iritt', 'gojek', 'uang', 'jajan', 'habis', 'bayar', 'gojek', 'sajaa', 'nanti']</t>
         </is>
       </c>
     </row>
@@ -824,7 +869,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['bt', 'tumpang', 'gojek', 'naikin', 'gojek', 'bisabisanya']</t>
+          <t>['buat', 'penumpang', 'gojek', 'naikin', 'gojek', 'bisabisanya']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['buat', 'tumpang', 'gojek', 'naikin', 'gojek', 'bisabisanya']</t>
         </is>
       </c>
     </row>
@@ -862,7 +912,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['anjrrrr', 'gojek', 'sm', 'paket', 'gue', 'nyasarnya', 'rumah', 'athallah']</t>
+          <t>['anjrrrr', 'gojek', 'sama', 'paket', 'gue', 'nyasarnya', 'rumah', 'athallah']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['anjrrrr', 'gojek', 'sama', 'paket', 'gue', 'nyasarnya', 'rumah', 'athallah']</t>
         </is>
       </c>
     </row>
@@ -900,7 +955,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['ketemu', 'driver', 'gocar', 'lansia', 'ngeselin', 'pdhl', 'keluh', 'barang', 'bawa', 'keluh', 'payment', 'gopay', 'jalan', 'ganti', 'payment', 'gopay', 'larang', 'gojek', 'supirkalau', 'bayar', 'pakai', 'gopayga', 'jemput', 'sombong', 'amit']</t>
+          <t>['ketemu', 'driver', 'gocar', 'lansia', 'mengesalkan', 'padahal', 'mengeluh', 'barang', 'bawaan', 'mengeluh', 'payment', 'gopay', 'jalan', 'ganti', 'payment', 'gopay', 'dilarang', 'gojek', 'supirkalau', 'bayar', 'pakai', 'gopayga', 'jemput', 'sombong', 'amit']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['ketemu', 'driver', 'gocar', 'lansia', 'kesal', 'padahal', 'keluh', 'barang', 'bawa', 'keluh', 'payment', 'gopay', 'jalan', 'ganti', 'payment', 'gopay', 'larang', 'gojek', 'supirkalau', 'bayar', 'pakai', 'gopayga', 'jemput', 'sombong', 'amit']</t>
         </is>
       </c>
     </row>
@@ -941,6 +1001,11 @@
           <t>['iklan', 'gojek', 'palsu']</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['iklan', 'gojek', 'palsu']</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -976,7 +1041,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['pel', 'fess', 'etapi', 'sen', 'gojeksf', 'suka', 'cepet', 'cepet', 'beli']</t>
+          <t>['pel', 'fess', 'etapi', 'pesan', 'gojeksf', 'suka', 'cepat', 'cepat', 'beli']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['pel', 'fess', 'etapi', 'pesan', 'gojeksf', 'suka', 'cepat', 'cepat', 'beli']</t>
         </is>
       </c>
     </row>
@@ -1017,6 +1087,11 @@
           <t>['mending', 'gojek', 'gue']</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['mending', 'gojek', 'gue']</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1055,6 +1130,11 @@
           <t>['grab', 'gojek', 'jer']</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['grab', 'gojek', 'jer']</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1090,7 +1170,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['btul', 'kadang', 'gojek', 'susah', 'dapet']</t>
+          <t>['betul', 'kadang', 'gojek', 'susah', 'dapat']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['betul', 'kadang', 'gojek', 'susah', 'dapat']</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1213,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['ldr', 'chatnya', 'pake', 'gojek', 'aplikasi', 'anak', 'bangsa', 'blokir']</t>
+          <t>['ldr', 'chatnya', 'pakai', 'gojek', 'aplikasi', 'anak', 'bangsa', 'diblokir']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['ldr', 'chatnya', 'pakai', 'gojek', 'aplikasi', 'anak', 'bangsa', 'blokir']</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1256,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['gojek', 'ap']</t>
+          <t>['gojek', 'apa']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['gojek', 'apa']</t>
         </is>
       </c>
     </row>
@@ -1204,6 +1299,11 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>['diinformasikan', 'detail', 'kendala', 'alami', 'nomor', 'telepon', 'terdaftar', 'diakun', 'goje']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>['informasi', 'detail', 'kendala', 'alami', 'nomor', 'telepon', 'daftar', 'akun', 'goje']</t>
         </is>
       </c>
@@ -1245,6 +1345,11 @@
           <t>['lucu', 'banget', 'gojek']</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['lucu', 'banget', 'gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1283,6 +1388,11 @@
           <t>['minat', 'abang', 'gojek']</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['minat', 'abang', 'gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1318,7 +1428,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['neng', 'banget', 'udh', 'pake', 'app', 'gojek', 'salah', 'usaha', 'teknologi', 'gue', 'lupa', 'nanya', 'nama']</t>
+          <t>['senang', 'banget', 'sudah', 'pakai', 'app', 'gojek', 'disalah', 'perusahaan', 'teknologi', 'gue', 'lupa', 'tanya', 'namanya']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['senang', 'banget', 'sudah', 'pakai', 'app', 'gojek', 'salah', 'usaha', 'teknologi', 'gue', 'lupa', 'tanya', 'nama']</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1471,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['ak', 'pas', 'ngambil', 'kue', 'tbtb', 'gojek', 'ngucapin', 'nyanyiin', 'lagu', 'ulang', 'hshsh', 'ultah', 'ayankk']</t>
+          <t>['aku', 'pas', 'ngambil', 'kue', 'tbtb', 'gojek', 'mengucapkan', 'menyanyikan', 'lagu', 'ulang', 'hshsh', 'ultah', 'ayankk']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['aku', 'pas', 'ngambil', 'kue', 'tbtb', 'gojek', 'ucap', 'nyanyi', 'lagu', 'ulang', 'hshsh', 'ultah', 'ayankk']</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1514,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['butuh', 'voucher', 'gojek', 'gosend', 'dm', 'gratis', 'nambah', 'xp', 'hihihi']</t>
+          <t>['butuh', 'voucher', 'gojek', 'gosend', 'dm', 'gratis', 'bertambah', 'xp', 'hihihi']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['butuh', 'voucher', 'gojek', 'gosend', 'dm', 'gratis', 'tambah', 'xp', 'hihihi']</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1557,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['pas', 'wkt', 'rame', 'trs', 'prnh', 'sen', 'gojek', 'abang', 'ngantrinya']</t>
+          <t>['pas', 'waktu', 'rame', 'terus', 'pernah', 'pesan', 'gojek', 'abangnya', 'ngantrinya']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['pas', 'waktu', 'rame', 'terus', 'pernah', 'pesan', 'gojek', 'abang', 'ngantrinya']</t>
         </is>
       </c>
     </row>
@@ -1470,6 +1600,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>['shopee', 'gojek', 'menyedot', 'pengangguran', 'mengurangi', 'karyawan', 'pabrik', 'ikutan', 'dima']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>['shopee', 'gojek', 'sedot', 'anggur', 'kurang', 'karyawan', 'pabrik', 'ikut', 'dima']</t>
         </is>
       </c>
@@ -1508,7 +1643,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['hoalaaa', 'bru', 'tauuu', 'gapernah', 'pake', 'gojek']</t>
+          <t>['hoalaaa', 'baru', 'tau', 'enggak pernah', 'pakai', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['hoalaaa', 'baru', 'tau', 'enggak pernah', 'pakai', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -1546,6 +1686,11 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
+          <t>['baca', 'tnc', 'komisi', 'gojek', 'biaya', 'appplatform', 'bayar', 'pas', 'setau']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>['baca', 'tnc', 'komisi', 'gojek', 'biaya', 'appplatform', 'bayar', 'pas', 'tau']</t>
         </is>
       </c>
@@ -1584,7 +1729,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['urus', 'babi', 'oke', 'silah', 'miras', 'pas', 'trnyata', 'mes', 'anak', 'baw']</t>
+          <t>['urusan', 'babi', 'okelah', 'silakan', 'miras', 'pas', 'ternyata', 'pemesan', 'anak', 'baw']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['urus', 'babi', 'oke', 'sila', 'miras', 'pas', 'nyata', 'mes', 'anak', 'baw']</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1772,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['sisa', 'voucher', 'ahahaha', 'makasih', 'gojek']</t>
+          <t>['sisa', 'voucher', 'ahahaha', 'terima kasih', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['sisa', 'voucher', 'ahahaha', 'terima kasih', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1815,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['gojek', 'gua', 'knpa', 'pelit', 'banget', 'sii']</t>
+          <t>['gojek', 'gua', 'kenapa', 'pelit', 'banget', 'sih']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['gojek', 'gua', 'kenapa', 'pelit', 'banget', 'sih']</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1858,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['gue', 'capek', 'banget', 'luv', 'banget', 'abang', 'gojek', 'ngajakin', 'gue', 'ngobrol', 'gue', 'ngomong', 'males']</t>
+          <t>['gue', 'capek', 'banget', 'luv', 'banget', 'abang', 'gojek', 'ngajakin', 'gue', 'mengobrol', 'gue', 'mengomong', 'malas']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['gue', 'capek', 'banget', 'luv', 'banget', 'abang', 'gojek', 'ngajakin', 'gue', 'obrol', 'gue', 'omong', 'malas']</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1901,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['kakak', 'gojek', 'gabisa', 'pakai', 'tolong', 'bantu']</t>
+          <t>['kakak', 'gojek', 'enggak bisa', 'pakai', 'tolong', 'dibantu']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['kakak', 'gojek', 'enggak bisa', 'pakai', 'tolong', 'bantu']</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1944,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['tbtb', 'taman', 'pulomas', 'naek', 'gojek', 'sabi']</t>
+          <t>['tbtb', 'taman', 'pulomas', 'naik', 'gojek', 'sabi']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['tbtb', 'taman', 'pulomas', 'naik', 'gojek', 'sabi']</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1987,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['sma', 'gin', 'uang', 'jajan', 'hari', 'gojek', 'ngakalinnya', 'uang', 'lgsg', 'dijadiin', 'gopay', 'trs', 'nyari', 'promo', 'promo', 'akun', 'abis', 'minjem', 'akun', 'temen']</t>
+          <t>['sama', 'begini', 'uang', 'jajan', 'perharinya', 'gojek', 'ngakalinnya', 'uang', 'langsung', 'dijadikan', 'gopay', 'terus', 'mencari', 'promo', 'promo', 'akunku', 'habis', 'minjem', 'akun', 'teman']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['sama', 'begini', 'uang', 'jajan', 'hari', 'gojek', 'ngakalinnya', 'uang', 'langsung', 'jadi', 'gopay', 'terus', 'cari', 'promo', 'promo', 'akun', 'habis', 'minjem', 'akun', 'teman']</t>
         </is>
       </c>
     </row>
@@ -1850,6 +2030,11 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'sahabat', 'gojek', 'militan', 'pagi', 'pejuang', 'sepertiga', 'malam', 'allah', 'mudahkanlah', 'urusan', 'ringa']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>['assalamualaikum', 'sahabat', 'gojek', 'militan', 'pagi', 'juang', 'tiga', 'malam', 'allah', 'mudah', 'urus', 'ringa']</t>
         </is>
       </c>
@@ -1888,7 +2073,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['kayak', 'karna', 'minggu', 'pake', 'gojek', 'move', 'grab']</t>
+          <t>['kayaknya', 'karena', 'minggu', 'pakai', 'gojek', 'move', 'grab']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['kayak', 'karena', 'minggu', 'pakai', 'gojek', 'move', 'grab']</t>
         </is>
       </c>
     </row>
@@ -1926,7 +2116,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['gilir', 'dinas', 'butuh', 'makan', 'laper', 'gojek', 'app', 'error', 'stress', 'bete', 'udh']</t>
+          <t>['giliran', 'dinas', 'butuh', 'makan', 'laper', 'gojek', 'app', 'error', 'stres', 'bete', 'sudah']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['gilir', 'dinas', 'butuh', 'makan', 'laper', 'gojek', 'app', 'error', 'stres', 'bete', 'sudah']</t>
         </is>
       </c>
     </row>
@@ -1964,7 +2159,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['chatannya', 'pakek', 'gojek', 'shopee']</t>
+          <t>['chatannya', 'pakai', 'gojek', 'shopee']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['chatannya', 'pakai', 'gojek', 'shopee']</t>
         </is>
       </c>
     </row>
@@ -2002,6 +2202,11 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
+          <t>['sharelock', 'mengko', 'dipetuk', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>['sharelock', 'mengko', 'petuk', 'gojek']</t>
         </is>
       </c>
@@ -2043,6 +2248,11 @@
           <t>['gojek']</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2078,7 +2288,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['gojek', 'pelit', 'promo', 'banget', 'gua', 'pergi', 'males', 'anjir', 'mahal', 'ongkos']</t>
+          <t>['gojek', 'pelit', 'promo', 'banget', 'gua', 'pergi', 'malas', 'anjir', 'mahal', 'ongkosnya']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['gojek', 'pelit', 'promo', 'banget', 'gua', 'pergi', 'malas', 'anjir', 'mahal', 'ongkos']</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2331,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['jaman', 'sekolah', 'uang', 'jajan', 'hari', 'gojek', 'gapunya', 'motor']</t>
+          <t>['jaman', 'sekolah', 'uang', 'jajan', 'sehari', 'gojekku', 'enggak punya', 'motor']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['jaman', 'sekolah', 'uang', 'jajan', 'hari', 'gojek', 'enggak punya', 'motor']</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2374,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['ngga', 'foto', 'kemas', 'buka', 'buka', 'struknya', 'trs', 'komplain', 'lgs', 'kyk', 'gin', 'gojek', 'lumayan', 'fast', 'respon', 'jaman', 'udh', 'refund']</t>
+          <t>['enggak', 'foto', 'kemasan', 'dibuka', 'dibuka', 'struknya', 'terus', 'komplainnya', 'langsung', 'kayak', 'begini', 'gojek', 'lumayan', 'fast', 'respon', 'jaman', 'sudah', 'refund']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['enggak', 'foto', 'kemas', 'buka', 'buka', 'struknya', 'terus', 'komplain', 'langsung', 'kayak', 'begini', 'gojek', 'lumayan', 'fast', 'respon', 'jaman', 'sudah', 'refund']</t>
         </is>
       </c>
     </row>
@@ -2195,6 +2420,11 @@
           <t>['gojek']</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2230,7 +2460,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['milnyu', 'sen', 'gojek']</t>
+          <t>['milnyu', 'pesan', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['milnyu', 'pesan', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -2271,6 +2506,11 @@
           <t>['thats', 'same', 'thing', 'blokir', 'internet', 'blokir', 'situs', 'facebook', 'google', 'belu']</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['thats', 'same', 'thing', 'blokir', 'internet', 'blokir', 'situs', 'facebook', 'google', 'belu']</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2306,7 +2546,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['pas', 'chat', 'gojek', 'stlh', 'mnt', 'bru', 'bales', 'otw', 'wtf', 'anjir', 'tdi', 'mnt', 'ngapain', 'maps']</t>
+          <t>['pas', 'chat', 'gojek', 'setelah', 'minta', 'baru', 'balas', 'otw', 'wtf', 'anjir', 'tadi', 'minta', 'mengapai', 'maps']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['pas', 'chat', 'gojek', 'telah', 'minta', 'baru', 'balas', 'otw', 'wtf', 'anjir', 'tadi', 'minta', 'kapai', 'maps']</t>
         </is>
       </c>
     </row>
@@ -2347,6 +2592,11 @@
           <t>['bentar', 'mwu', 'gojek', 'kopken']</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['bentar', 'mwu', 'gojek', 'kopken']</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2382,7 +2632,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['tkut', 'ancur', 'pake', 'gojek']</t>
+          <t>['takut', 'hancur', 'pakai', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['takut', 'hancur', 'pakai', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2675,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['jalan', 'jelek', 'jalan', 'cor', 'peduli', 'salah', 'sndiri', 'ngomong', 'driver', 'gojek', 'ngapa']</t>
+          <t>['jalan', 'jelek', 'jalan', 'cor', 'peduli', 'salah', 'sendiri', 'mengomong', 'driver', 'gojek', 'ngapa']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['jalan', 'jelek', 'jalan', 'cor', 'peduli', 'salah', 'sendiri', 'omong', 'driver', 'gojek', 'ngapa']</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2718,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['bayangin', 'ongkos', 'gojek', 'kampus', 'tkut', 'bawa', 'kendara', 'gaada', 'anter', 'jgg']</t>
+          <t>['bayangkan', 'ongkos', 'gojek', 'kampus', 'takut', 'bawa', 'kendaraan', 'enggak ada', 'anter', 'jgg']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['bayang', 'ongkos', 'gojek', 'kampus', 'takut', 'bawa', 'kendara', 'enggak ada', 'anter', 'jgg']</t>
         </is>
       </c>
     </row>
@@ -2496,6 +2761,11 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
+          <t>['maaf', 'kendalanya', 'lakukan', 'pengecekan', 'diinformasikan', 'nomor', 'telepon', 'email', 'terdaftar', 'dm', 'tksari']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>['maaf', 'kendala', 'laku', 'kece', 'informasi', 'nomor', 'telepon', 'email', 'daftar', 'dm', 'tksari']</t>
         </is>
       </c>
@@ -2537,6 +2807,11 @@
           <t>['gojek', 'mahal']</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['gojek', 'mahal']</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2572,7 +2847,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['gojek', 'gaada', 'tanggung', 'suruh', 'bantu', 'aplikasi', 'ditanggepin', 'lapor', 'selesai']</t>
+          <t>['gojek', 'enggak ada', 'tanggung', 'suruh', 'bantuan', 'aplikasi', 'ditanggepin', 'laporan', 'diselesaikan']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['gojek', 'enggak ada', 'tanggung', 'suruh', 'bantu', 'aplikasi', 'ditanggepin', 'lapor', 'selesai']</t>
         </is>
       </c>
     </row>
@@ -2613,6 +2893,11 @@
           <t>['kirim', 'surat', 'gojek']</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['kirim', 'surat', 'gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2651,6 +2936,11 @@
           <t>['gojek', 'gue', 'pelit', 'voucher']</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['gojek', 'gue', 'pelit', 'voucher']</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2686,7 +2976,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['ikhlas', 'nyesek', 'sempet', 'cobain', 'keju', 'beli', 'sabtu', 'sore']</t>
+          <t>['ikhlas', 'menyesak', 'sempat', 'coba', 'keju', 'belinya', 'sabtu', 'sore']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['ikhlas', 'sesak', 'sempat', 'coba', 'keju', 'beli', 'sabtu', 'sore']</t>
         </is>
       </c>
     </row>
@@ -2727,6 +3022,11 @@
           <t>['gojek', 'anjg', 'voucher', 'rebu', 'doangg', 'anjritttt']</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['gojek', 'anjg', 'voucher', 'rebu', 'doangg', 'anjritttt']</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2762,7 +3062,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['habede', 'anjay', 'umur', 'tua', 'wish', 'all', 'best', 'gua', 'aamiin', 'lupa']</t>
+          <t>['habede', 'anjay', 'umur', 'tua', 'wish', 'all', 'best', 'gua', 'amin', 'lupa']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['habede', 'anjay', 'umur', 'tua', 'wish', 'all', 'best', 'gua', 'amin', 'lupa']</t>
         </is>
       </c>
     </row>
@@ -2800,7 +3105,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['habede', 'anjay', 'umur', 'tua', 'wish', 'all', 'best', 'gua', 'aamiin', 'lupa']</t>
+          <t>['habede', 'anjay', 'umur', 'tua', 'wish', 'all', 'best', 'gua', 'amin', 'lupa']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['habede', 'anjay', 'umur', 'tua', 'wish', 'all', 'best', 'gua', 'amin', 'lupa']</t>
         </is>
       </c>
     </row>
@@ -2841,6 +3151,11 @@
           <t>['gojek', 'gopay', 'grab', 'grab', 'den']</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['gojek', 'gopay', 'grab', 'grab', 'den']</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2876,7 +3191,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['nang', 'banget', 'dapet', 'gojek']</t>
+          <t>['menangis', 'banget', 'dapat', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['menang', 'banget', 'dapat', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -2914,7 +3234,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['gue', 'lupa', 'note', 'order', 'tulis', 'nama', 'gue', 'gelas', 'coffe', 'tpi', 'tulis', 'nama', 'gue', 'gue']</t>
+          <t>['gue', 'lupa', 'note', 'orderan', 'tulis', 'nama', 'gue', 'gelas', 'coffe', 'tapi', 'ditulis', 'nama', 'gue', 'gue']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['gue', 'lupa', 'note', 'order', 'tulis', 'nama', 'gue', 'gelas', 'coffe', 'tapi', 'tulis', 'nama', 'gue', 'gue']</t>
         </is>
       </c>
     </row>
@@ -2952,6 +3277,11 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
+          <t>['sayangnya', 'stasiun', 'krl', 'doang', 'saran', 'krl', 'aplikasi', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>['sayang', 'stasiun', 'krl', 'doang', 'saran', 'krl', 'aplikasi', 'gojek']</t>
         </is>
       </c>
@@ -2990,7 +3320,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['cemas', 'akun', 'blokir', 'gojek', 'elu', 'ndak', 'pulih', 'akun']</t>
+          <t>['cemaslah', 'akun', 'diblokir', 'gojek', 'lu', 'indak', 'memulihkan', 'akun']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['cemas', 'akun', 'blokir', 'gojek', 'lu', 'indak', 'pulih', 'akun']</t>
         </is>
       </c>
     </row>
@@ -3028,7 +3363,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['jalan', 'area', 'sarinah', 'paksa', 'maps', 'kilo', 'gojek', 'muter', 'milih', 'jalan', 'asa', 'asa', 'emang', 'lingkung', 'pengaruh']</t>
+          <t>['jalan', 'area', 'sarinah', 'terpaksa', 'maps', 'sekilo', 'gojek', 'muter', 'memilih', 'jalan', 'berasa', 'berasa', 'memang', 'lingkungan', 'berpengaruh']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['jalan', 'area', 'sarinah', 'paksa', 'maps', 'kilo', 'gojek', 'muter', 'pilih', 'jalan', 'asa', 'asa', 'memang', 'lingkung', 'pengaruh']</t>
         </is>
       </c>
     </row>
@@ -3069,6 +3409,11 @@
           <t>['bareng', 'gojek', 'sabi']</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['bareng', 'gojek', 'sabi']</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3104,7 +3449,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['hbs', 'liat', 'ava', 'doi', 'sial', 'kaya', 'gojek']</t>
+          <t>['habis', 'lihat', 'ava', 'doi', 'sialan', 'kayak', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['habis', 'lihat', 'ava', 'doi', 'sial', 'kayak', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -3142,7 +3492,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['couldnt', 'imagine', 'pain', 'gojek', 'nyasar', 'kali', 'grgr', 'lokasi', 'gmaps', 'salah']</t>
+          <t>['couldnt', 'imagine', 'pain', 'gojek', 'nyasar', 'berkali', 'gara-gara', 'lokasi', 'gmaps', 'salah']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['couldnt', 'imagine', 'pain', 'gojek', 'nyasar', 'kali', 'gara-gara', 'lokasi', 'gmaps', 'salah']</t>
         </is>
       </c>
     </row>
@@ -3183,6 +3538,11 @@
           <t>['gopay', 'aplk', 'gopay', 'dalem', 'gojek', 'bodoh']</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['gopay', 'aplk', 'gopay', 'dalem', 'gojek', 'bodoh']</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3218,7 +3578,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['engga', 'tetep', 'takut', 'also', 'got', 'confused', 'people', 'wearing', 'lenses', 'sti']</t>
+          <t>['enggak', 'tetap', 'takut', 'also', 'got', 'confused', 'people', 'wearing', 'lenses', 'sti']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['enggak', 'tetap', 'takut', 'also', 'got', 'confused', 'people', 'wearing', 'lenses', 'sti']</t>
         </is>
       </c>
     </row>
@@ -3256,6 +3621,11 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
+          <t>['saingan', 'ku', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
           <t>['saing', 'ku', 'gojek']</t>
         </is>
       </c>
@@ -3294,7 +3664,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['bener', 'banget', 'its', 'not', 'big', 'deal', 'batas', 'nganterin', 'malem', 'posisi', 'trs', 'pacar', 'gbs', 'jemput', 'malem', 'yakan', 'ngeri', 'gojek']</t>
+          <t>['benar', 'banget', 'its', 'not', 'big', 'deal', 'sebatas', 'mengantarkan', 'malam', 'posisi', 'terus', 'pacar', 'enggak bisa', 'jemput', 'malam', 'yakan', 'ngeri', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['benar', 'banget', 'its', 'not', 'big', 'deal', 'batas', 'antar', 'malam', 'posisi', 'terus', 'pacar', 'enggak bisa', 'jemput', 'malam', 'yakan', 'ngeri', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3707,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['ken', 'pakai', 'gopay', 'pisah', 'gojek', 'titik']</t>
+          <t>['pengin', 'pakai', 'gopay', 'terpisah', 'gojek', 'titik']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['pengin', 'pakai', 'gopay', 'pisah', 'gojek', 'titik']</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3750,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['top', 'up', 'pulsa', 'gojek', 'knp', 'hhhhh']</t>
+          <t>['top', 'up', 'pulsa', 'gojek', 'kenapa', 'hhhhh']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['top', 'up', 'pulsa', 'gojek', 'kenapa', 'hhhhh']</t>
         </is>
       </c>
     </row>
@@ -3411,6 +3796,11 @@
           <t>['bismillah', 'gojek', 'rame', 'yagesyak']</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['bismillah', 'gojek', 'rame', 'yagesyak']</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3446,7 +3836,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['inget', 'kemarin', 'malem', 'pulang', 'baltos', 'gojek', 'turun', 'gojek', 'jatoh', 'gara']</t>
+          <t>['ingat', 'kemarin', 'malam', 'pulang', 'baltos', 'gojek', 'turun', 'gojek', 'jatuh', 'gara']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['ingat', 'kemarin', 'malam', 'pulang', 'baltos', 'gojek', 'turun', 'gojek', 'jatuh', 'gara']</t>
         </is>
       </c>
     </row>
@@ -3487,6 +3882,11 @@
           <t>['yaudah', 'sok', 'gojek']</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['yaudah', 'sok', 'gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3522,7 +3922,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['kek', 'seru', 'iseng', 'daftarin', 'temen', 'gojek']</t>
+          <t>['kayaknya', 'seru', 'iseng', 'daftarin', 'teman', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['kayak', 'seru', 'iseng', 'daftarin', 'teman', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -3563,6 +3968,11 @@
           <t>['rela', 'gojek']</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['rela', 'gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3601,6 +4011,11 @@
           <t>['abang', 'gojek', 'satpam']</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['abang', 'gojek', 'satpam']</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3636,7 +4051,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['gue', 'naek', 'krl', 'naek', 'gojek']</t>
+          <t>['gue', 'naik', 'krl', 'naik', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['gue', 'naik', 'krl', 'naik', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -3674,7 +4094,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['sleep', 'deprived', 'pas', 'pulang', 'bareng', 'gojek', 'ngga']</t>
+          <t>['sleep', 'deprived', 'pas', 'pulang', 'bareng', 'gojek', 'enggak']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['sleep', 'deprived', 'pas', 'pulang', 'bareng', 'gojek', 'enggak']</t>
         </is>
       </c>
     </row>
@@ -3712,6 +4137,11 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
+          <t>['perluas', 'jangkauan', 'daerah', 'transportasi', 'jarak', 'stasiun', 'keretamrttj', 'rumah']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
           <t>['luas', 'jangkau', 'daerah', 'transportasi', 'jarak', 'stasiun', 'keretamrttj', 'rumah']</t>
         </is>
       </c>
@@ -3750,7 +4180,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['hasil', 'jemput', 'moal', 'naek', 'grab', 'gojek', 'komo', 'angkot']</t>
+          <t>['hasil', 'dijemput', 'moal', 'naik', 'grab', 'gojek', 'komo', 'angkot']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['hasil', 'jemput', 'moal', 'naik', 'grab', 'gojek', 'komo', 'angkot']</t>
         </is>
       </c>
     </row>
@@ -3791,6 +4226,11 @@
           <t>['kirim', 'kirim', 'gojek', 'aduh', 'gua', 'butuh', 'dompet', 'gua', 'kirim', 'paket']</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['kirim', 'kirim', 'gojek', 'aduh', 'gua', 'butuh', 'dompet', 'gua', 'kirim', 'paket']</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3826,7 +4266,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['gojek', 'grab', 'gajelas', 'ngasi', 'promo', 'niat', 'niat']</t>
+          <t>['gojek', 'grab', 'enggak jelas', 'mengasih', 'promo', 'niat', 'niat']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['gojek', 'grab', 'enggak jelas', 'asih', 'promo', 'niat', 'niat']</t>
         </is>
       </c>
     </row>
@@ -3864,7 +4309,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['mmortal', 'kadang', 'murah', 'pake', 'gopaylater', 'suka', 'suka', 'gojek', 'ngasih', 'voucher']</t>
+          <t>['mmortal', 'kadang', 'murah', 'pakai', 'gopaylater', 'suka', 'suka', 'gojek', 'mengasih', 'voucher']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['mmortal', 'kadang', 'murah', 'pakai', 'gopaylater', 'suka', 'suka', 'gojek', 'asih', 'voucher']</t>
         </is>
       </c>
     </row>
@@ -3902,7 +4352,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['males', 'pake', 'gojek', 'nggak', 'dapet', 'voucher', 'gofood']</t>
+          <t>['malas', 'pakai', 'gojek', 'enggak', 'dapat', 'voucher', 'gofood']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['malas', 'pakai', 'gojek', 'enggak', 'dapat', 'voucher', 'gofood']</t>
         </is>
       </c>
     </row>
@@ -3940,6 +4395,11 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
+          <t>['fix', 'gojek', 'disana', 'jemput']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
           <t>['fix', 'gojek', 'sana', 'jemput']</t>
         </is>
       </c>
@@ -3981,6 +4441,11 @@
           <t>['chat', 'ayang', 'gojek']</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['chat', 'ayang', 'gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4016,7 +4481,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['mmortal', 'udh', 'bngt', 'udh', 'hub', 'cs', 'gojek', 'ken']</t>
+          <t>['mmortal', 'sudah', 'banget', 'sudah', 'hubungi', 'cs', 'gojek', 'pengin']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['mmortal', 'sudah', 'banget', 'sudah', 'hubung', 'cs', 'gojek', 'pengin']</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4524,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['unrelated', 'pas', 'sma', 'abis', 'umkm', 'nunggu', 'gojek', 'pinggir', 'jalan', 'sndiri', 'tb', 'motor', 'henti', 'lgsg', 'mana', 'dek', 'ayo', 'bareng', 'arah', 'kesana', 'udh', 'tolak', 'ngajaklah', 'tntg', 'arah', 'rumah', 'gue']</t>
+          <t>['unrelated', 'pas', 'sama', 'habis', 'umkm', 'menunggu', 'gojek', 'pinggir', 'jalan', 'sendiri', 'tb', 'motor', 'berhenti', 'langsung', 'kemana', 'dek', 'ayo', 'bareng', 'arahnya', 'kesana', 'sudah', 'ditolak', 'ngajaklah', 'tentang', 'arah', 'rumah', 'gue']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['unrelated', 'pas', 'sama', 'habis', 'umkm', 'tunggu', 'gojek', 'pinggir', 'jalan', 'sendiri', 'tb', 'motor', 'henti', 'langsung', 'mana', 'dek', 'ayo', 'bareng', 'arah', 'kesana', 'sudah', 'tolak', 'ngajaklah', 'tentang', 'arah', 'rumah', 'gue']</t>
         </is>
       </c>
     </row>
@@ -4092,7 +4567,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['fto', 'spion', 'gojek']</t>
+          <t>['foto', 'spion', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['foto', 'spion', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -4133,6 +4613,11 @@
           <t>['gojek', 'mihil']</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['gojek', 'mihil']</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4168,7 +4653,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['dapet', 'voc', 'gojekgofood', 'samsek']</t>
+          <t>['dapat', 'voc', 'gojekgofood', 'samsek']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['dapat', 'voc', 'gojekgofood', 'samsek']</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4696,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['mmortal', 'gadapet', 'kakkk', 'lapor', 'gojek', 'liat', 'gaada']</t>
+          <t>['mmortal', 'gadapet', 'kak', 'laporan', 'gojek', 'lihat', 'enggak ada']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['mmortal', 'gadapet', 'kak', 'lapor', 'gojek', 'lihat', 'enggak ada']</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4739,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['ayo', 'pake', 'gojek']</t>
+          <t>['ayo', 'pakai', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['ayo', 'pakai', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -4282,7 +4782,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['jahat', 'marah', 'heran', 'dimarahin', 'tukang', 'angkot', 'dimarahin', 'gojek']</t>
+          <t>['jahat', 'marah', 'heran', 'dimarahi', 'tukang', 'angkot', 'dimarahi', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['jahat', 'marah', 'heran', 'marah', 'tukang', 'angkot', 'marah', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4825,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>['gue', 'gojek', 'gosipin', 'customernya', 'tuhan', 'gue', 'aneh', 'digosipin', 'hahahah']</t>
+          <t>['gue', 'gojek', 'menggosipkan', 'customernya', 'tuhan', 'gue', 'aneh', 'digosipin', 'hahahah']</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>['gue', 'gojek', 'gosip', 'customernya', 'tuhan', 'gue', 'aneh', 'digosipin', 'hahahah']</t>
         </is>
       </c>
     </row>
@@ -4361,6 +4871,11 @@
           <t>['linetele', 'syopi', 'gojek', 'onok']</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>['linetele', 'syopi', 'gojek', 'onok']</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4396,7 +4911,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>['dunia', 'apk', 'gojek', 'gausah', 'ngandelin', 'pacar', 'muluu', 'malu', 'emaknya']</t>
+          <t>['dunia', 'apk', 'gojek', 'enggak usah', 'ngandelin', 'pacar', 'muluu', 'malu', 'emaknya']</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>['dunia', 'apk', 'gojek', 'enggak usah', 'ngandelin', 'pacar', 'muluu', 'malu', 'emaknya']</t>
         </is>
       </c>
     </row>
@@ -4434,6 +4954,11 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
+          <t>['gabung', 'grup', 'gojek', 'niatnya', 'nemu', 'cerita', 'menarik', 'taunya', 'sedihhhhh']</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
           <t>['gabung', 'grup', 'gojek', 'niat', 'nemu', 'cerita', 'tarik', 'tau', 'sedihhhhh']</t>
         </is>
       </c>
@@ -4472,7 +4997,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>['nihhh', 'prnh', 'promo', 'goride', 'berangkat', 'pake', 'gojek']</t>
+          <t>['nih', 'pernah', 'promo', 'goride', 'berangkat', 'pakai', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>['nih', 'pernah', 'promo', 'goride', 'berangkat', 'pakai', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -4510,7 +5040,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>['gojek', 'jarak', 'kaya', 'jarak', 'mending', 'mrt']</t>
+          <t>['gojek', 'jaraknya', 'kayak', 'jaraknya', 'mendingan', 'mrt']</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>['gojek', 'jarak', 'kayak', 'jarak', 'mending', 'mrt']</t>
         </is>
       </c>
     </row>
@@ -4548,7 +5083,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>['rumah', 'elit', 'dhel', 'wktu', 'abang', 'grabgojek', 'pas', 'pembanguan', 'flyover', 'bwah', 'flyover', 'tinggal', 'timpa', 'besi', 'gtu', 'emg', 'rem']</t>
+          <t>['perumahan', 'elit', 'dhel', 'waktu', 'abang', 'grabgojek', 'pas', 'pembanguan', 'flyover', 'bwah', 'flyover', 'meninggal', 'ketimpa', 'besi', 'begitu', 'memang', 'seram']</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>['rumah', 'elit', 'dhel', 'waktu', 'abang', 'grabgojek', 'pas', 'pembanguan', 'flyover', 'bwah', 'flyover', 'tinggal', 'timpa', 'besi', 'begitu', 'memang', 'seram']</t>
         </is>
       </c>
     </row>
@@ -4586,7 +5126,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>['kirain', 'lamar', 'gojek']</t>
+          <t>['mengira', 'lamar', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>['ira', 'lamar', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -4624,7 +5169,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>['better', 'cari', 'kos', 'deket', 'kantor', 'jalan', 'nggak', 'macet', 'hemat', 'biaya']</t>
+          <t>['better', 'cari', 'kos', 'dekat', 'kantor', 'jalan', 'enggak', 'macet', 'hemat', 'biaya']</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>['better', 'cari', 'kos', 'dekat', 'kantor', 'jalan', 'enggak', 'macet', 'hemat', 'biaya']</t>
         </is>
       </c>
     </row>
@@ -4662,7 +5212,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>['jauhh', 'males', 'gojek', 'marah', 'online']</t>
+          <t>['jauh', 'malas', 'gojek', 'marahan', 'online']</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>['jauh', 'malas', 'gojek', 'marah', 'online']</t>
         </is>
       </c>
     </row>
@@ -4700,7 +5255,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>['buka', 'aplikasi', 'gojekgrab', 'tinggal', 'sen', 'kono']</t>
+          <t>['buka', 'aplikasi', 'gojekgrab', 'tinggal', 'pesan', 'kono']</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>['buka', 'aplikasi', 'gojekgrab', 'tinggal', 'pesan', 'kono']</t>
         </is>
       </c>
     </row>
@@ -4738,6 +5298,11 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
+          <t>['selamat', 'malam', 'st', 'rangkasbitung', 'stasiun', 'uang', 'elektronik', 'melayani', 'transaksi', 'tiket', 'harian', 'berjaminan', 'thb', 'kmt', 'uang', 'elektronik', 'bank', 'emoney', 'flazz', 'brizzi', 'tapcashpembayaran', 'aplikasi', 'linkajagojek', 'tks']</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
           <t>['selamat', 'malam', 'st', 'rangkasbitung', 'stasiun', 'uang', 'elektronik', 'layan', 'transaksi', 'tiket', 'hari', 'jamin', 'thb', 'kmt', 'uang', 'elektronik', 'bank', 'emoney', 'flazz', 'brizzi', 'tapcashpembayaran', 'aplikasi', 'linkajagojek', 'tks']</t>
         </is>
       </c>
@@ -4776,7 +5341,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>['mintol', 'abang', 'gojek', 'ambilin']</t>
+          <t>['mintol', 'abang', 'gojek', 'mengambil']</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>['mintol', 'abang', 'gojek', 'ambil']</t>
         </is>
       </c>
     </row>
@@ -4814,7 +5384,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>['expect', 'masak', 'ye', 'karna', 'tinggal', 'kampung', 'mamak', 'mampu', 'masak', 'asah', 'sempurna', 'orgnya', 'mager', 'cari', 'makan', 'luar', 'ketapang', 'gojek']</t>
+          <t>['expect', 'masak', 'ye', 'karena', 'tinggal', 'kampung', 'mamak', 'kemampuan', 'memasak', 'terasah', 'sempurna', 'orgnya', 'mager', 'cari', 'makan', 'diluar', 'ketapang', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>['expect', 'masak', 'ye', 'karena', 'tinggal', 'kampung', 'mamak', 'mampu', 'masak', 'asah', 'sempurna', 'orgnya', 'mager', 'cari', 'makan', 'luar', 'ketapang', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -4852,6 +5427,11 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
+          <t>['cowok', 'nongkrong', 'doang', 'pengangguran']</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
           <t>['cowok', 'nongkrong', 'doang', 'anggur']</t>
         </is>
       </c>
@@ -4890,7 +5470,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>['decided', 'renti', 'jadi', 'milih', 'gojek', 'jalan', 'gatega', 'mgelintas']</t>
+          <t>['decided', 'berenti', 'kejadian', 'memilih', 'gojek', 'jalan', 'gatega', 'mgelintas']</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>['decided', 'renti', 'jadi', 'pilih', 'gojek', 'jalan', 'gatega', 'mgelintas']</t>
         </is>
       </c>
     </row>
@@ -4928,7 +5513,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>['percaya', 'ken', 'gojek', 'makan', 'scroll', 'beli', 'karna', 'bingung', 'makan']</t>
+          <t>['percaya', 'pengin', 'gojek', 'makanan', 'scroll', 'beli', 'karena', 'bingung', 'makan']</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>['percaya', 'pengin', 'gojek', 'makan', 'scroll', 'beli', 'karena', 'bingung', 'makan']</t>
         </is>
       </c>
     </row>
@@ -4966,7 +5556,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>['kemarin', 'make', 'taxi', 'bapaknyaa', 'ngasih', 'harga', 'sesuai', 'app', 'gojek', 'grab', 'huhu', 'pas', 'abis', 'ujan', 'ribu', 'jarak', 'kilo', 'kek']</t>
+          <t>['kemarin', 'memakai', 'taxi', 'bapaknyaa', 'mengasih', 'harganya', 'sesuai', 'app', 'gojek', 'grab', 'huhu', 'pas', 'habis', 'ujan', 'ribu', 'jaraknya', 'kiloan', 'kayaknya']</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>['kemarin', 'pakai', 'taxi', 'bapaknyaa', 'asih', 'harga', 'sesuai', 'app', 'gojek', 'grab', 'huhu', 'pas', 'habis', 'ujan', 'ribu', 'jarak', 'kilo', 'kayak']</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5599,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>['goblo', 'masak', 'salah', 'basic', 'life', 'skill', 'idup', 'boros']</t>
+          <t>['goblo', 'memasak', 'salah', 'basic', 'life', 'skill', 'hidup', 'boros']</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>['goblo', 'masak', 'salah', 'basic', 'life', 'skill', 'hidup', 'boros']</t>
         </is>
       </c>
     </row>
@@ -5042,7 +5642,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>['driver', 'gojek', 'jakarta', 'hebat', 'banget', 'nyari', 'jalan', 'tembus', 'ganggang', 'jembatan', 'sempit', 'shirot']</t>
+          <t>['driver', 'gojek', 'jakarta', 'hebat', 'banget', 'mencari', 'jalan', 'tembusan', 'ganggang', 'jembatan', 'sesempit', 'shirot']</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>['driver', 'gojek', 'jakarta', 'hebat', 'banget', 'cari', 'jalan', 'tembus', 'ganggang', 'jembatan', 'sempit', 'shirot']</t>
         </is>
       </c>
     </row>
@@ -5083,6 +5688,11 @@
           <t>['gojek', 'promo', 'uang']</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>['gojek', 'promo', 'uang']</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5118,7 +5728,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>['macet', 'gojek', 'nyampe']</t>
+          <t>['macet', 'gojek', 'sampai']</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>['macet', 'gojek', 'sampai']</t>
         </is>
       </c>
     </row>
@@ -5156,7 +5771,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>['lelah', 'gojek', 'dateng', 'bawain', 'makan', 'ituuuu', 'loooo']</t>
+          <t>['lelah', 'gojek', 'datang', 'bawain', 'makan', 'itu', 'loooo']</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>['lelah', 'gojek', 'datang', 'bawain', 'makan', 'itu', 'loooo']</t>
         </is>
       </c>
     </row>
@@ -5194,6 +5814,11 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
+          <t>['next', 'promo', 'gojekgrab', 'pelajar']</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
           <t>['next', 'promo', 'gojekgrab', 'ajar']</t>
         </is>
       </c>
@@ -5235,6 +5860,11 @@
           <t>['gojek']</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>['gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -5270,7 +5900,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>['abis', 'duit', 'gojek', 'derita', 'bawa', 'motor']</t>
+          <t>['habis', 'duit', 'gojek', 'derita', 'bawa', 'motor']</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>['habis', 'duit', 'gojek', 'derita', 'bawa', 'motor']</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5943,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>['mrasa', 'senang', 'pas', 'badmood', 'full', 'day', 'sekolah', 'pas', 'pulang', 'dapet', 'driver', 'gojek', 'ramah', 'skliii']</t>
+          <t>['mrasa', 'senang', 'pas', 'badmood', 'full', 'day', 'sekolah', 'pas', 'pulang', 'dapat', 'driver', 'gojek', 'ramah', 'skliii']</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>['mrasa', 'senang', 'pas', 'badmood', 'full', 'day', 'sekolah', 'pas', 'pulang', 'dapat', 'driver', 'gojek', 'ramah', 'skliii']</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5986,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>['ipoint', 'liat', 'gojek', 'grab']</t>
+          <t>['ipoint', 'lihatnya', 'gojek', 'grab']</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>['ipoint', 'lihat', 'gojek', 'grab']</t>
         </is>
       </c>
     </row>
@@ -5387,6 +6032,11 @@
           <t>['gojek']</t>
         </is>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>['gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -5422,6 +6072,11 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
+          <t>['binun', 'gojek', 'chatnya', 'main']</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
           <t>['bun', 'gojek', 'chatnya', 'main']</t>
         </is>
       </c>
@@ -5460,7 +6115,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>['kangen', 'mamang', 'gojek', 'nganterin', 'gbk', 'bgtttt', 'ajak', 'ngobrol', 'jalan', 'heningg']</t>
+          <t>['kangen', 'mamang', 'gojek', 'mengantarkan', 'gbk', 'banget', 'diajak', 'mengobrol', 'dijalan', 'heningg']</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>['kangen', 'mamang', 'gojek', 'antar', 'gbk', 'banget', 'ajak', 'obrol', 'jalan', 'heningg']</t>
         </is>
       </c>
     </row>
@@ -5498,7 +6158,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>['sempet', 'bun', 'chat', 'gojek', 'ngaps']</t>
+          <t>['sempat', 'binun', 'chat', 'gojek', 'ngaps']</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>['sempat', 'bun', 'chat', 'gojek', 'ngaps']</t>
         </is>
       </c>
     </row>
@@ -5539,6 +6204,11 @@
           <t>['gojek', 'kereta', 'berangkat']</t>
         </is>
       </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>['gojek', 'kereta', 'berangkat']</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -5574,7 +6244,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>['cape', 'jalanin', 'hidup', 'gojek']</t>
+          <t>['capek', 'menjalani', 'hidup', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>['capek', 'jalan', 'hidup', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -5612,7 +6287,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>['beli', 'gojek', 'starbuck', 'dapet', 'lt', 'sampe', 'kembung']</t>
+          <t>['belinya', 'gojek', 'starbuck', 'dapat', 'lantai', 'sampai', 'kembung']</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>['beli', 'gojek', 'starbuck', 'dapat', 'lantai', 'sampai', 'kembung']</t>
         </is>
       </c>
     </row>
@@ -5650,6 +6330,11 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
+          <t>['santainya', 'order', 'gojek', 'jam', 'taunya', 'jadwal', 'keretanya', 'jam', 'jarak', 'rumah', 'stasiun', 'menit', 'acungi', 'jempol', 'kebodohan']</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
           <t>['santai', 'order', 'gojek', 'jam', 'tau', 'jadwal', 'kereta', 'jam', 'jarak', 'rumah', 'stasiun', 'menit', 'acung', 'jempol', 'bodoh']</t>
         </is>
       </c>
@@ -5688,6 +6373,11 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
+          <t>['nutup', 'layanan', 'google', 'gofood', 'gojek', 'grabfood', 'grab', 'apps', 'layanan', 'berbasis', 'lokasi', 'jalan', 'keren']</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
           <t>['nutup', 'layan', 'google', 'gofood', 'gojek', 'grabfood', 'grab', 'apps', 'layan', 'bas', 'lokasi', 'jalan', 'keren']</t>
         </is>
       </c>
@@ -5726,7 +6416,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>['yalord', 'cpt', 'mati', 'manusia', 'gin', 'pelit', 'banget', 'tipe', 'ngasih', 'tips', 'abang']</t>
+          <t>['yalord', 'cepat', 'mati', 'manusia', 'begini', 'pelit', 'banget', 'tipe', 'mengasih', 'tips', 'abang']</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>['yalord', 'cepat', 'mati', 'manusia', 'begini', 'pelit', 'banget', 'tipe', 'asih', 'tips', 'abang']</t>
         </is>
       </c>
     </row>
@@ -5764,7 +6459,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>['gojek', 'knp', 'mahal']</t>
+          <t>['gojek', 'kenapa', 'mahal']</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>['gojek', 'kenapa', 'mahal']</t>
         </is>
       </c>
     </row>
@@ -5805,6 +6505,11 @@
           <t>['gojek']</t>
         </is>
       </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>['gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5843,6 +6548,11 @@
           <t>['info', 'promo', 'gojek', 'daerah', 'malang']</t>
         </is>
       </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>['info', 'promo', 'gojek', 'daerah', 'malang']</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5881,6 +6591,11 @@
           <t>['gojek', 'dom', 'malang']</t>
         </is>
       </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>['gojek', 'dom', 'malang']</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5919,6 +6634,11 @@
           <t>['selamat', 'pagi', 'episode', 'tidur', 'gojek']</t>
         </is>
       </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>['selamat', 'pagi', 'episode', 'tidur', 'gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5954,7 +6674,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>['akun', 'nggak', 'promo', 'apa', 'pdhl', 'pake', 'gojek']</t>
+          <t>['akunku', 'enggak', 'promo', 'apapun', 'padahal', 'pakai', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>['akun', 'enggak', 'promo', 'apa', 'padahal', 'pakai', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -5992,7 +6717,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>['nang', 'gojek', 'pagi', 'terik', 'matahari', 'another', 'level', 'pain']</t>
+          <t>['menangis', 'gojek', 'pagi', 'terik', 'matahari', 'another', 'level', 'pain']</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>['menang', 'gojek', 'pagi', 'terik', 'matahari', 'another', 'level', 'pain']</t>
         </is>
       </c>
     </row>
@@ -6033,6 +6763,11 @@
           <t>['gojek', 'mulu']</t>
         </is>
       </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>['gojek', 'mulu']</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -6068,7 +6803,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>['ifstalk', 'abg', 'gojek', 'move']</t>
+          <t>['ifstalk', 'abang', 'gojek', 'move']</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>['ifstalk', 'abang', 'gojek', 'move']</t>
         </is>
       </c>
     </row>
@@ -6106,7 +6846,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>['daya', 'akun', 'gojek', 'gua', 'wangi', 'alias', 'gapernah', 'dapet', 'promopromo']</t>
+          <t>['daya', 'akun', 'gojek', 'gua', 'wangi', 'alias', 'enggak pernah', 'dapat', 'promopromo']</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>['daya', 'akun', 'gojek', 'gua', 'wangi', 'alias', 'enggak pernah', 'dapat', 'promopromo']</t>
         </is>
       </c>
     </row>
@@ -6147,6 +6892,11 @@
           <t>['grab', 'gojek', 'nebeng']</t>
         </is>
       </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>['grab', 'gojek', 'nebeng']</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -6185,6 +6935,11 @@
           <t>['abang', 'gojek']</t>
         </is>
       </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>['abang', 'gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -6220,7 +6975,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>['gojek', 'liat', 'spion', 'mulu', 'gel', 'pala', 'pfft']</t>
+          <t>['gojek', 'lihat', 'spion', 'mulu', 'pegel', 'palanya', 'pfft']</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>['gojek', 'lihat', 'spion', 'mulu', 'gel', 'pala', 'pfft']</t>
         </is>
       </c>
     </row>
@@ -6261,6 +7021,11 @@
           <t>['gue', 'healing', 'sbux', 'mesennya', 'gojek', 'sbux', 'nyokap', 'kakak', 'gue', 'mesenin']</t>
         </is>
       </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>['gue', 'healing', 'sbux', 'mesennya', 'gojek', 'sbux', 'nyokap', 'kakak', 'gue', 'mesenin']</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -6296,7 +7061,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>['emang', 'kemarin', 'bilang', 'pake', 'telfon', 'sekolah', 'pinjem', 'hp', 'bu', 'pake', 'gojek', 'sungkan', 'bangsat']</t>
+          <t>['memang', 'kemarin', 'bilangnya', 'pakai', 'telfon', 'sekolah', 'pinjem', 'hp', 'bu', 'pakai', 'gojek', 'sungkan', 'bangsat']</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>['memang', 'kemarin', 'bilang', 'pakai', 'telfon', 'sekolah', 'pinjem', 'hp', 'bu', 'pakai', 'gojek', 'sungkan', 'bangsat']</t>
         </is>
       </c>
     </row>
@@ -6334,7 +7104,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>['chat', 'gue', 'papa', 'gabisa', 'gue', 'gojek', 'otomatis', 'telfon', 'chat', 'papa', 'bawa', 'hp', 'allah']</t>
+          <t>['chat', 'gue', 'papa', 'enggak bisa', 'gue', 'gojek', 'otomatis', 'telfon', 'chat', 'papa', 'bawa', 'hp', 'allah']</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>['chat', 'gue', 'papa', 'enggak bisa', 'gue', 'gojek', 'otomatis', 'telfon', 'chat', 'papa', 'bawa', 'hp', 'allah']</t>
         </is>
       </c>
     </row>
@@ -6372,6 +7147,11 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
+          <t>['pas', 'gojek', 'berasa', 'mandiri']</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
           <t>['pas', 'gojek', 'asa', 'mandiri']</t>
         </is>
       </c>
@@ -6410,7 +7190,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>['kayak', 'temennya', 'chat', 'aplikasi', 'gojek', 'pura', 'pura', 'driver', 'mesen']</t>
+          <t>['kayaknya', 'temannya', 'chat', 'aplikasi', 'gojek', 'pura', 'pura', 'driver', 'mesen']</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>['kayak', 'teman', 'chat', 'aplikasi', 'gojek', 'pura', 'pura', 'driver', 'mesen']</t>
         </is>
       </c>
     </row>
@@ -6448,7 +7233,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>['anter', 'gojek', 'cape', 'renang', 'nyampe']</t>
+          <t>['anter', 'gojek', 'capek', 'berenang', 'sampai']</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>['anter', 'gojek', 'capek', 'renang', 'sampai']</t>
         </is>
       </c>
     </row>
@@ -6489,6 +7279,11 @@
           <t>['vc', 'gojek', 'goride']</t>
         </is>
       </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>['vc', 'gojek', 'goride']</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -6527,6 +7322,11 @@
           <t>['pas', 'gojek', 'wkwkwkwk']</t>
         </is>
       </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>['pas', 'gojek', 'wkwkwkwk']</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -6565,6 +7365,11 @@
           <t>['gojek']</t>
         </is>
       </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>['gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -6600,7 +7405,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>['kaya', 'akun', 'akun', 'jarang', 'promo', 'jarang', 'make', 'gojek', 'pake', 'gojek', 'promo', 'make', 'promo', 'royal', 'gojek', 'gojek', 'royal', 'kalean']</t>
+          <t>['kayanya', 'akun', 'akun', 'jarang', 'promo', 'jarang', 'memakai', 'gojek', 'pakai', 'gojek', 'promo', 'memakai', 'promo', 'royal', 'gojek', 'gojek', 'royal', 'kalean']</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>['kaya', 'akun', 'akun', 'jarang', 'promo', 'jarang', 'pakai', 'gojek', 'pakai', 'gojek', 'promo', 'pakai', 'promo', 'royal', 'gojek', 'gojek', 'royal', 'kalean']</t>
         </is>
       </c>
     </row>
@@ -6638,7 +7448,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>['liat', 'malem', 'jaga', 'ajah', 'kmrn', 'endingnya', 'tetep', 'gojek', 'tj', 'penuh', 'wajar']</t>
+          <t>['kelihatan', 'malam', 'jaga', 'saja', 'kemarin', 'endingnya', 'tetap', 'gojek', 'tj', 'penuhnya', 'wajar']</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>['lihat', 'malam', 'jaga', 'saja', 'kemarin', 'endingnya', 'tetap', 'gojek', 'tj', 'penuh', 'wajar']</t>
         </is>
       </c>
     </row>
@@ -6679,6 +7494,11 @@
           <t>['wtb', 'promo', 'gojek', 'grab']</t>
         </is>
       </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>['wtb', 'promo', 'gojek', 'grab']</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -6717,6 +7537,11 @@
           <t>['ojek', 'gue', 'jaman', 'gojek']</t>
         </is>
       </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>['ojek', 'gue', 'jaman', 'gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -6755,6 +7580,11 @@
           <t>['ikhwan', 'gojek']</t>
         </is>
       </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>['ikhwan', 'gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -6790,7 +7620,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>['jaman', 'sekolah', 'gue', 'banget', 'neng', 'pulang', 'sore', 'habis', 'angkot', 'jalan', 'kaki', 'sampe', 'rumah', 'malam', 'gonceng', 'temen', 'gojek', 'rame', 'numpang', 'mobil', 'pick', 'up']</t>
+          <t>['jaman', 'sekolah', 'gue', 'banget', 'senang', 'pulang', 'sore', 'habis', 'angkot', 'jalan', 'kaki', 'sampai', 'rumah', 'kemalaman', 'gonceng', 'teman', 'gojek', 'rame', 'numpang', 'mobil', 'pick', 'up']</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>['jaman', 'sekolah', 'gue', 'banget', 'senang', 'pulang', 'sore', 'habis', 'angkot', 'jalan', 'kaki', 'sampai', 'rumah', 'malam', 'gonceng', 'teman', 'gojek', 'rame', 'numpang', 'mobil', 'pick', 'up']</t>
         </is>
       </c>
     </row>
@@ -6828,7 +7663,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>['emang', 'itali', 'gojek']</t>
+          <t>['memang', 'itali', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>['memang', 'itali', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -6866,7 +7706,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>['pesan', 'gojek', 'pas', 'buruburu', 'drivernya', 'banget', 'gilir', 'nyantai', 'drivernya', 'ngga']</t>
+          <t>['pesan', 'gojek', 'pas', 'buruburu', 'drivernya', 'banget', 'giliran', 'nyantai', 'drivernya', 'enggak']</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>['pesan', 'gojek', 'pas', 'buruburu', 'drivernya', 'banget', 'gilir', 'nyantai', 'drivernya', 'enggak']</t>
         </is>
       </c>
     </row>
@@ -6904,6 +7749,11 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
+          <t>['bisanya', 'driver', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
           <t>['bisa', 'driver', 'gojek']</t>
         </is>
       </c>
@@ -6942,7 +7792,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>['nunggu', 'menit', 'grgr', 'gojek', 'salah', 'gregetan', 'bgttt']</t>
+          <t>['menunggu', 'menit', 'gara-gara', 'gojek', 'salah', 'gregetan', 'banget']</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>['tunggu', 'menit', 'gara-gara', 'gojek', 'salah', 'gregetan', 'banget']</t>
         </is>
       </c>
     </row>
@@ -6980,7 +7835,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>['ngajuin', 'google', 'maps', 'rumah', 'gue', 'maps', 'diarahin', 'portal', 'cape']</t>
+          <t>['mengajukan', 'google', 'maps', 'rumah', 'gue', 'maps', 'diarahin', 'portal', 'capek']</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>['aju', 'google', 'maps', 'rumah', 'gue', 'maps', 'diarahin', 'portal', 'capek']</t>
         </is>
       </c>
     </row>
@@ -7018,7 +7878,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>['bsbsnya', 'gue', 'pagi', 'leyot', 'gegara', 'liat', 'abang', 'gojek', 'senyum', 'pakpol', 'gue', 'manis', 'beudh', 'aaaaakh']</t>
+          <t>['bsbsnya', 'gue', 'pagi', 'meleyot', 'gegara', 'lihat', 'abang', 'gojek', 'senyum', 'pakpol', 'gue', 'manis', 'beudh', 'aaaaakh']</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>['bsbsnya', 'gue', 'pagi', 'leyot', 'gegara', 'lihat', 'abang', 'gojek', 'senyum', 'pakpol', 'gue', 'manis', 'beudh', 'aaaaakh']</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7921,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>['kim', 'waw', 'deket', 'banget', 'jkt', 'gojek', 'ngga', 'liat', 'bangettttt', 'selamat', 'makan']</t>
+          <t>['kim', 'wow', 'dekat', 'banget', 'jakarta', 'gojek', 'enggak', 'kelihatannya', 'banget', 'selamat', 'makan']</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>['kim', 'wow', 'dekat', 'banget', 'jakarta', 'gojek', 'enggak', 'lihat', 'banget', 'selamat', 'makan']</t>
         </is>
       </c>
     </row>
@@ -7094,7 +7964,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>['nasib', 'rumah', 'sibuk', 'dihubungin', 'gamau', 'gojek']</t>
+          <t>['nasib', 'rumah', 'sibuk', 'dihubungin', 'enggak mau', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>['nasib', 'rumah', 'sibuk', 'dihubungin', 'enggak mau', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -7132,6 +8007,11 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
+          <t>['grab', 'gojek', 'habis', 'nuruninselesai', 'orderan', 'disuruh', 'kasih', 'rating', 'customer', 'rating', 'app']</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
           <t>['grab', 'gojek', 'habis', 'nuruninselesai', 'order', 'suruh', 'kasih', 'rating', 'customer', 'rating', 'app']</t>
         </is>
       </c>
@@ -7170,6 +8050,11 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
+          <t>['bomnall', 'kerasanya', 'pas', 'gojek', 'kulit', 'perih']</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
           <t>['bomnall', 'rasa', 'pas', 'gojek', 'kulit', 'perih']</t>
         </is>
       </c>
@@ -7208,7 +8093,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>['slamat', 'menang', 'gojek', 'pagi', 'pagi', 'aliya']</t>
+          <t>['selamat', 'menangis', 'gojek', 'pagi', 'pagi', 'aliya']</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>['selamat', 'menang', 'gojek', 'pagi', 'pagi', 'aliya']</t>
         </is>
       </c>
     </row>
@@ -7246,7 +8136,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>['hidup', 'jalan', 'nggak', 'pake', 'gojek']</t>
+          <t>['hidup', 'berjalan', 'enggak', 'pakai', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>['hidup', 'jalan', 'enggak', 'pakai', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -7284,7 +8179,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>['resto', 'gojek', 'suka', 'promo', 'gede', 'gede', 'maw', 'makan', 'laper']</t>
+          <t>['resto', 'gojek', 'suka', 'promo', 'gede', 'gedean', 'mau', 'makan', 'laper']</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>['resto', 'gojek', 'suka', 'promo', 'gede', 'gede', 'mau', 'makan', 'laper']</t>
         </is>
       </c>
     </row>
@@ -7322,7 +8222,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>['gojek', 'mending', 'ngekos', 'kecuali', 'pake', 'kendara', 'mending']</t>
+          <t>['gojek', 'mending', 'ngekos', 'kecuali', 'pakai', 'kendaraan', 'mending']</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>['gojek', 'mending', 'ngekos', 'kecuali', 'pakai', 'kendara', 'mending']</t>
         </is>
       </c>
     </row>
@@ -7360,7 +8265,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>['maximgojekgrab', 'rumah', 'gamau', 'nganter', 'awikwok']</t>
+          <t>['maximgojekgrab', 'rumah', 'enggak mau', 'nganter', 'awikwok']</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>['maximgojekgrab', 'rumah', 'enggak mau', 'nganter', 'awikwok']</t>
         </is>
       </c>
     </row>
@@ -7398,6 +8308,11 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
+          <t>['id', 'tambahi', 'gojek', 'cilik', 'apik']</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
           <t>['id', 'tambah', 'gojek', 'cilik', 'apik']</t>
         </is>
       </c>
@@ -7436,7 +8351,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>['compatible', 'kaya', 'gojek', 'hp', 'gue', 'work', 'kaya', 'pas', 'bbrp', 'work', 'buka', 'close', 'appnya', 'sampe', 'gue', 'uninstall', 'install']</t>
+          <t>['compatible', 'kayanya', 'gojek', 'hp', 'gue', 'work', 'kayak', 'pas', 'beberapa', 'work', 'dibuka', 'close', 'appnya', 'sampai', 'gue', 'uninstall', 'install']</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>['compatible', 'kaya', 'gojek', 'hp', 'gue', 'work', 'kayak', 'pas', 'beberapa', 'work', 'buka', 'close', 'appnya', 'sampai', 'gue', 'uninstall', 'install']</t>
         </is>
       </c>
     </row>
@@ -7474,7 +8394,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>['kuliah', 'hidup', 'emang', 'bener', 'sopir', 'blue', 'bird', 'gojek', 'dapet', 'cerita', 'klien', 'sisi']</t>
+          <t>['kuliah', 'kehidupan', 'memang', 'benar', 'sopir', 'blue', 'biru', 'gojek', 'dapat', 'cerita', 'klien', 'sisi']</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>['kuliah', 'hidup', 'memang', 'benar', 'sopir', 'blue', 'biru', 'gojek', 'dapat', 'cerita', 'klien', 'sisi']</t>
         </is>
       </c>
     </row>
@@ -7515,6 +8440,11 @@
           <t>['gojek', 'grab', 'maxim']</t>
         </is>
       </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>['gojek', 'grab', 'maxim']</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -7550,7 +8480,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>['cant', 'gue', 'nang', 'gojek', 'baca']</t>
+          <t>['cant', 'gue', 'menangis', 'gojek', 'bacanya']</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>['cant', 'gue', 'menang', 'gojek', 'baca']</t>
         </is>
       </c>
     </row>
@@ -7591,6 +8526,11 @@
           <t>['bpk', 'gojek', 'pnyelmat', 'dunia']</t>
         </is>
       </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>['bpk', 'gojek', 'pnyelmat', 'dunia']</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -7626,7 +8566,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>['knp', 'gojek', 'prnh', 'promo']</t>
+          <t>['kenapa', 'gojek', 'pernah', 'promo']</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>['kenapa', 'gojek', 'pernah', 'promo']</t>
         </is>
       </c>
     </row>
@@ -7664,6 +8609,11 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
+          <t>['suka', 'gojek', 'motor', 'bebek', 'kadang', 'oper', 'giginya']</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
           <t>['suka', 'gojek', 'motor', 'bebek', 'kadang', 'oper', 'gigi']</t>
         </is>
       </c>
@@ -7702,6 +8652,11 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
+          <t>['alkaff', 'perasaan', 'uber', 'gojek', 'grab']</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
           <t>['alkaff', 'asa', 'uber', 'gojek', 'grab']</t>
         </is>
       </c>
@@ -7740,6 +8695,11 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
+          <t>['terima', 'kasih', 'pelanggan', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
           <t>['terima', 'kasih', 'langgan', 'gojek']</t>
         </is>
       </c>
@@ -7778,7 +8738,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>['asa', 'sen', 'gojek', 'gue']</t>
+          <t>['berasa', 'pesan', 'gojek', 'gue']</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>['asa', 'pesan', 'gojek', 'gue']</t>
         </is>
       </c>
     </row>
@@ -7816,7 +8781,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>['rumah', 'bener', 'pake', 'gojek', 'least', 'stasiun', 'commuter', 'dekat', 'butuh', 'motor', 'plgan', 'pindah', 'apartemen', 'tinggal', 'jalan', 'kaki', 'menit', 'nyampe']</t>
+          <t>['rumah', 'benar', 'pakai', 'gojek', 'least', 'stasiun', 'commuter', 'terdekat', 'butuh', 'motor', 'plgan', 'pindah', 'apartemen', 'tinggal', 'jalan', 'kaki', 'menit', 'sampai']</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>['rumah', 'benar', 'pakai', 'gojek', 'least', 'stasiun', 'commuter', 'dekat', 'butuh', 'motor', 'plgan', 'pindah', 'apartemen', 'tinggal', 'jalan', 'kaki', 'menit', 'sampai']</t>
         </is>
       </c>
     </row>
@@ -7854,6 +8824,11 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
+          <t>['sarapan', 'pagi', 'gojek', 'banget']</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
           <t>['sarap', 'pagi', 'gojek', 'banget']</t>
         </is>
       </c>
@@ -7895,6 +8870,11 @@
           <t>['bocah', 'tolol', 'gue', 'gojek', 'voucher', 'diapply']</t>
         </is>
       </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>['bocah', 'tolol', 'gue', 'gojek', 'voucher', 'diapply']</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -7930,7 +8910,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>['gojek', 'jalan', 'lambat', 'bener', 'astagaaaa', 'gas']</t>
+          <t>['gojek', 'jalannya', 'lambat', 'benar', 'astaga', 'gas']</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>['gojek', 'jalan', 'lambat', 'benar', 'astaga', 'gas']</t>
         </is>
       </c>
     </row>
@@ -7971,6 +8956,11 @@
           <t>['aaaaaa', 'kesel', 'gojek']</t>
         </is>
       </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>['aaaaaa', 'kesel', 'gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -8006,7 +8996,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>['diingetin', 'sarap', 'sm', 'ayang', 'diingetin', 'sarap', 'sm', 'gojek']</t>
+          <t>['diingatkan', 'sarapan', 'sama', 'ayang', 'diingatkan', 'sarapan', 'sama', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>['ingat', 'sarap', 'sama', 'ayang', 'ingat', 'sarap', 'sama', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -8044,6 +9039,11 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
+          <t>['dipanggil', 'buk', 'gojek', 'setua']</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
           <t>['panggil', 'buk', 'gojek', 'tua']</t>
         </is>
       </c>
@@ -8082,6 +9082,11 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
+          <t>['anjir', 'bisanya', 'nebeng', 'gue', 'aplikasi', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
           <t>['anjir', 'bisa', 'nebeng', 'gue', 'aplikasi', 'gojek']</t>
         </is>
       </c>
@@ -8120,7 +9125,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>['gojek', 'drivernya', 'tauuu']</t>
+          <t>['gojek', 'drivernya', 'tau']</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>['gojek', 'drivernya', 'tau']</t>
         </is>
       </c>
     </row>
@@ -8158,7 +9168,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>['ayang', 'gojek', 'kasi', 'ide', 'sarap']</t>
+          <t>['ayang', 'gojek', 'kasih', 'ide', 'sarapan']</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>['ayang', 'gojek', 'kasih', 'ide', 'sarap']</t>
         </is>
       </c>
     </row>
@@ -8196,6 +9211,11 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
+          <t>['mjb', 'jare', 'mbakku', 'lek', 'kota', 'worth', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
           <t>['mjb', 'jare', 'mbak', 'lek', 'kota', 'worth', 'gojek']</t>
         </is>
       </c>
@@ -8237,6 +9257,11 @@
           <t>['tementemen', 'hartono', 'mall', 'jogja', 'gojek', 'sender', 'habis', 'turun', 'jalan']</t>
         </is>
       </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>['tementemen', 'hartono', 'mall', 'jogja', 'gojek', 'sender', 'habis', 'turun', 'jalan']</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -8272,7 +9297,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>['jurang', 'belimbing', 'gang', 'nirwanasari', 'banjarsari', 'kampus', 'fpik', 'lumayan', 'jalan', 'pulang', 'doang', 'jalan', 'berangkat', 'ttp', 'cari', 'tebengangojek']</t>
+          <t>['jurang', 'belimbing', 'gang', 'nirwanasari', 'banjarsari', 'kampusnya', 'fpik', 'lumayan', 'jalannya', 'pulang', 'doang', 'jalan', 'berangkatnya', 'tetap', 'cari', 'tebengangojek']</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>['jurang', 'belimbing', 'gang', 'nirwanasari', 'banjarsari', 'kampus', 'fpik', 'lumayan', 'jalan', 'pulang', 'doang', 'jalan', 'berangkat', 'tetap', 'cari', 'tebengangojek']</t>
         </is>
       </c>
     </row>
@@ -8313,6 +9343,11 @@
           <t>['gojek', 'mahal', 'anjeng']</t>
         </is>
       </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>['gojek', 'mahal', 'anjeng']</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -8348,6 +9383,11 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
+          <t>['gojek', 'aerox', 'berasa', 'banget', 'kursi', 'penumpangnya', 'sungguh', 'helicopter', 'view']</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
           <t>['gojek', 'aerox', 'asa', 'banget', 'kursi', 'tumpang', 'sungguh', 'helicopter', 'view']</t>
         </is>
       </c>
@@ -8389,6 +9429,11 @@
           <t>['weekend', 'alih', 'profesi', 'gojek']</t>
         </is>
       </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>['weekend', 'alih', 'profesi', 'gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -8427,6 +9472,11 @@
           <t>['ugmfess', 'hartono', 'gojek', 'turun', 'mall', 'jalan', 'situ']</t>
         </is>
       </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>['ugmfess', 'hartono', 'gojek', 'turun', 'mall', 'jalan', 'situ']</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -8462,7 +9512,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>['jam', 'turun', 'setiabudi', 'rshs', 'gojek', 'pake', 'celana', 'pendek', 'ide', 'bagus', 'bandung', 'emang', 'dingin', 'tambah', 'pagi', 'mendung']</t>
+          <t>['jam', 'turun', 'setiabudi', 'rshs', 'gojek', 'pakai', 'celana', 'pendek', 'ide', 'bagus', 'bandung', 'memang', 'dingin', 'ditambah', 'pagi', 'mendung']</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>['jam', 'turun', 'setiabudi', 'rshs', 'gojek', 'pakai', 'celana', 'pendek', 'ide', 'bagus', 'bandung', 'memang', 'dingin', 'tambah', 'pagi', 'mendung']</t>
         </is>
       </c>
     </row>
@@ -8503,6 +9558,11 @@
           <t>['not', 'mewek', 'gojek']</t>
         </is>
       </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>['not', 'mewek', 'gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -8538,7 +9598,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>['tetot', 'tetot', 'bantu', 'penyebrangan', 'mostly', 'jalan', 'jalur', 'naek', 'gojek', 'brgkt', 'sm', 'pulangny', 'beda', 'jalur']</t>
+          <t>['tetot', 'tetot', 'bantu', 'penyebrangan', 'mostly', 'jalannya', 'jalur', 'naik', 'gojek', 'brgkt', 'sama', 'pulangny', 'beda', 'jalur']</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>['tetot', 'tetot', 'bantu', 'penyebrangan', 'mostly', 'jalan', 'jalur', 'naik', 'gojek', 'brgkt', 'sama', 'pulangny', 'beda', 'jalur']</t>
         </is>
       </c>
     </row>
@@ -8576,7 +9641,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>['liat', 'nama', 'masterpiece', 'ayang', 'gojek']</t>
+          <t>['lihat', 'namanya', 'masterpiece', 'ayang', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>['lihat', 'nama', 'masterpiece', 'ayang', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -8614,7 +9684,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>['sebenernya', 'boros', 'beli', 'promoan', 'gojekgrab', 'beli']</t>
+          <t>['sebenarnya', 'boros', 'beli', 'promoan', 'gojekgrab', 'beli']</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>['benar', 'boros', 'beli', 'promoan', 'gojekgrab', 'beli']</t>
         </is>
       </c>
     </row>
@@ -8652,7 +9727,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>['duit', 'gweh', 'abis', 'gojek', 'mulu']</t>
+          <t>['duit', 'gweh', 'habis', 'gojek', 'mulu']</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>['duit', 'gweh', 'habis', 'gojek', 'mulu']</t>
         </is>
       </c>
     </row>
@@ -8693,6 +9773,11 @@
           <t>['topup', 'abang', 'gojek', 'topup', 'goride']</t>
         </is>
       </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>['topup', 'abang', 'gojek', 'topup', 'goride']</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -8731,6 +9816,11 @@
           <t>['thx', 'gojek']</t>
         </is>
       </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>['thx', 'gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -8766,7 +9856,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>['abang', 'gojek', 'fetishnya', 'denger', 'desah', 'tumpang', 'takut']</t>
+          <t>['abang', 'gojek', 'fetishnya', 'dengar', 'desahan', 'penumpang', 'ketakutan']</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>['abang', 'gojek', 'fetishnya', 'dengar', 'desah', 'tumpang', 'takut']</t>
         </is>
       </c>
     </row>
@@ -8804,7 +9899,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>['produk', 'google', 'blokir', 'dadak', 'gojek', 'peta', 'make', 'maps', 'google']</t>
+          <t>['produk', 'google', 'diblokir', 'mendadak', 'gojek', 'peta', 'memakai', 'maps', 'google']</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>['produk', 'google', 'blokir', 'dadak', 'gojek', 'peta', 'pakai', 'maps', 'google']</t>
         </is>
       </c>
     </row>
@@ -8842,7 +9942,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>['kaget', 'buka', 'akun', 'gojek', 'tagih', 'ongkos', 'parkir', 'anjj', 'ngomong', 'sii', 'vows', 'buname']</t>
+          <t>['kaget', 'buka', 'akun', 'gojek', 'tagihan', 'ongkos', 'parkir', 'anjj', 'mengomong', 'sih', 'vows', 'buname']</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>['kaget', 'buka', 'akun', 'gojek', 'tagih', 'ongkos', 'parkir', 'anjj', 'omong', 'sih', 'vows', 'buname']</t>
         </is>
       </c>
     </row>
@@ -8880,7 +9985,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>['brsma', 'bpk', 'gojek', 'trcintah']</t>
+          <t>['bersama', 'bpk', 'gojek', 'trcintah']</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>['sama', 'bpk', 'gojek', 'trcintah']</t>
         </is>
       </c>
     </row>
@@ -8918,7 +10028,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>['holic', 'pagi', 'ngakak', 'gara', 'seonho', 'driver', 'gojek']</t>
+          <t>['holic', 'pagi', 'mengakak', 'gara', 'seonho', 'driver', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>['holic', 'pagi', 'akak', 'gara', 'seonho', 'driver', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -8956,7 +10071,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>['kayak', 'abang', 'gojek', 'kemaren']</t>
+          <t>['kayaknya', 'abang', 'gojek', 'kemarin']</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>['kayak', 'abang', 'gojek', 'kemarin']</t>
         </is>
       </c>
     </row>
@@ -8994,6 +10114,11 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
+          <t>['maksudnya', 'cgk', 'gojek', 'grab']</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
           <t>['maksud', 'cgk', 'gojek', 'grab']</t>
         </is>
       </c>
@@ -9032,6 +10157,11 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
+          <t>['anying', 'gojek', 'jam', 'segini', 'asuu']</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
           <t>['anying', 'gojek', 'jam', 'gin', 'asuu']</t>
         </is>
       </c>
@@ -9070,7 +10200,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>['mesen', 'gojek', 'maleeesss', 'ken', 'tidur']</t>
+          <t>['mesen', 'gojek', 'maleeesss', 'pengin', 'tidur']</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>['mesen', 'gojek', 'maleeesss', 'pengin', 'tidur']</t>
         </is>
       </c>
     </row>
@@ -9108,7 +10243,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>['apk', 'compatible', 'hp', 'sender', 'kaya', 'gue', 'kaya', 'gin', 'apk', 'gojek', 'hp', 'gue']</t>
+          <t>['apk', 'compatible', 'hp', 'sender', 'kayanya', 'gue', 'kayak', 'begini', 'apk', 'gojek', 'hp', 'gue']</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>['apk', 'compatible', 'hp', 'sender', 'kaya', 'gue', 'kayak', 'begini', 'apk', 'gojek', 'hp', 'gue']</t>
         </is>
       </c>
     </row>
@@ -9146,7 +10286,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>['hadue', 'ngitung', 'diskon', 'gojek', 'aje', 'bingung']</t>
+          <t>['hadue', 'ngitung', 'diskon', 'gojek', 'saja', 'bingung']</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>['hadue', 'ngitung', 'diskon', 'gojek', 'saja', 'bingung']</t>
         </is>
       </c>
     </row>
@@ -9184,7 +10329,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>['owalahh', 'beli', 'pake', 'gojek', 'cape']</t>
+          <t>['owalahh', 'beli', 'pakai', 'gojek', 'kecapekan']</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>['owalahh', 'beli', 'pakai', 'gojek', 'cape']</t>
         </is>
       </c>
     </row>
@@ -9222,7 +10372,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>['untung', 'cs', 'kota', 'bandung', 'rusak', 'butuh', 'cepet', 'kirim', 'gojek', 'sampe', 'jam', 'sampe']</t>
+          <t>['untungnya', 'cs', 'kota', 'bandung', 'rusak', 'butuh', 'cepat', 'kirim', 'gojek', 'sampai', 'jam', 'sampai']</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>['untung', 'cs', 'kota', 'bandung', 'rusak', 'butuh', 'cepat', 'kirim', 'gojek', 'sampai', 'jam', 'sampai']</t>
         </is>
       </c>
     </row>
@@ -9260,7 +10415,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>['capek', 'gaada', 'gojek', 'dsni', 'gofood']</t>
+          <t>['capek', 'enggak ada', 'gojek', 'disini', 'gofood']</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>['capek', 'enggak ada', 'gojek', 'sini', 'gofood']</t>
         </is>
       </c>
     </row>
@@ -9298,7 +10458,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>['drama', 'kang', 'grab', 'nd', 'gojek', 'pagi', 'tegor', 'atas', 'mulut', 'pait', 'mual', 'lemes', 'kaga', 'udahudah', 'siku', 'kepento']</t>
+          <t>['drama', 'kang', 'grab', 'indak', 'gojek', 'pagi', 'tegor', 'atasan', 'mulut', 'pahit', 'mual', 'lemes', 'kagak', 'udahudah', 'siku', 'kepento']</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>['drama', 'kang', 'grab', 'indak', 'gojek', 'pagi', 'tegor', 'atas', 'mulut', 'pahit', 'mual', 'lemes', 'kagak', 'udahudah', 'siku', 'kepento']</t>
         </is>
       </c>
     </row>
@@ -9336,7 +10501,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>['gojek', 'gunung', 'everest', 'alias', 'gabakalan', 'sampe']</t>
+          <t>['gojek', 'gunung', 'everest', 'alias', 'gabakalan', 'sampai']</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>['gojek', 'gunung', 'everest', 'alias', 'gabakalan', 'sampai']</t>
         </is>
       </c>
     </row>
@@ -9377,6 +10547,11 @@
           <t>['happy', 'gojek']</t>
         </is>
       </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>['happy', 'gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -9415,6 +10590,11 @@
           <t>['dilema', 'pulang', 'bogor', 'turun', 'st', 'karet', 'gojek', 'kos', 'muacettttnya', 'nauzubillah', 'st', 'tanah']</t>
         </is>
       </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>['dilema', 'pulang', 'bogor', 'turun', 'st', 'karet', 'gojek', 'kos', 'muacettttnya', 'nauzubillah', 'st', 'tanah']</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -9453,6 +10633,11 @@
           <t>['xxi', 'cafe', 'gojek']</t>
         </is>
       </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>['xxi', 'cafe', 'gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -9488,7 +10673,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>['pernaahh', 'sm', 'gojek', 'tetangga', 'sodara', 'temuin', 'nyambungg', 'galupa', 'sedekah']</t>
+          <t>['pernaahh', 'sama', 'gojek', 'tetangga', 'sodara', 'temuin', 'nyambungg', 'galupa', 'sedekah']</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>['pernaahh', 'sama', 'gojek', 'tetangga', 'sodara', 'temuin', 'nyambungg', 'galupa', 'sedekah']</t>
         </is>
       </c>
     </row>
@@ -9526,7 +10716,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>['arep', 'awak', 'driver', 'gojek', 'nganu', 'bales', 'simple', 'wae']</t>
+          <t>['arep', 'awakmu', 'driver', 'gojek', 'nganu', 'balas', 'simple', 'wae']</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>['arep', 'awak', 'driver', 'gojek', 'nganu', 'balas', 'simple', 'wae']</t>
         </is>
       </c>
     </row>
@@ -9564,7 +10759,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>['temen', 'gojek']</t>
+          <t>['teman', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>['teman', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -9602,6 +10802,11 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
+          <t>['atimu', 'rasah', 'nanggepi', 'iso', 'didohi', 'akdewe', 'mengalah', 'driver', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
           <t>['ati', 'rasah', 'nanggepi', 'iso', 'didohi', 'akdewe', 'kalah', 'driver', 'gojek']</t>
         </is>
       </c>
@@ -9643,6 +10848,11 @@
           <t>['gojek']</t>
         </is>
       </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>['gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -9678,6 +10888,11 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
+          <t>['merasakan', 'angkot', 'stasiun', 'sudimara', 'sarua', 'tangerang', 'selatan', 'angkot', 'pasar', 'ciputat']</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
           <t>['rasa', 'angkot', 'stasiun', 'sudimara', 'sarua', 'tangerang', 'selatan', 'angkot', 'pasar', 'ciputat']</t>
         </is>
       </c>
@@ -9716,7 +10931,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>['transjakarta', 'yahh', 'yauda', 'gajadi', 'kesitu', 'gojek', 'mahal']</t>
+          <t>['transjakarta', 'ya', 'yauda', 'gajadi', 'kesitu', 'gojek', 'mahal']</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>['transjakarta', 'ya', 'yauda', 'gajadi', 'kesitu', 'gojek', 'mahal']</t>
         </is>
       </c>
     </row>
@@ -9757,6 +10977,11 @@
           <t>['gueh', 'gocargojek']</t>
         </is>
       </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>['gueh', 'gocargojek']</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -9795,6 +11020,11 @@
           <t>['anjrit', 'mesen', 'gojek']</t>
         </is>
       </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>['anjrit', 'mesen', 'gojek']</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -9830,7 +11060,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>['make', 'gojek', 'dapet', 'promo', 'gojek', 'tau', 'pelit', 'voucher']</t>
+          <t>['memakai', 'gojek', 'dapat', 'promo', 'gojek', 'taunya', 'pelit', 'voucher']</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>['pakai', 'gojek', 'dapat', 'promo', 'gojek', 'tau', 'pelit', 'voucher']</t>
         </is>
       </c>
     </row>
@@ -9868,7 +11103,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>['anter', 'gojek', 'ganteng']</t>
+          <t>['diantar', 'gojek', 'ganteng']</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>['antar', 'gojek', 'ganteng']</t>
         </is>
       </c>
     </row>
@@ -9906,7 +11146,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>['turun', 'st', 'jatinegara', 'deket', 'gojek']</t>
+          <t>['turun', 'st', 'jatinegara', 'dekat', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>['turun', 'st', 'jatinegara', 'dekat', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -9944,7 +11189,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>['ajak', 'bot', 'sm', 'abang', 'gojek', 'sm', 'anak']</t>
+          <t>['diajak', 'boti', 'sama', 'abang', 'gojek', 'sama', 'anaknya']</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>['ajak', 'bot', 'sama', 'abang', 'gojek', 'sama', 'anak']</t>
         </is>
       </c>
     </row>
@@ -9982,7 +11232,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>['nunggu', 'gojek']</t>
+          <t>['menunggu', 'gojek']</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>['tunggu', 'gojek']</t>
         </is>
       </c>
     </row>
@@ -10020,7 +11275,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>['santuy', 'naad', 'mager', 'masak', 'ngegrabfood', 'sen', 'porsi', 'ramean', 'minimum', 'order', 'grabfood', 'diskon', 'sd', 'lupa', 'langgan', 'paket', 'grabunlimited', 'hemat', 'info', 'lengkap', 'sinitita']</t>
+          <t>['santuy', 'naad', 'mager', 'masak', 'ngegrabfood', 'pesan', 'seporsi', 'ramean', 'minimum', 'order', 'grabfood', 'diskonnya', 'sd', 'lupa', 'langganan', 'paket', 'grabunlimited', 'hemat', 'info', 'lengkap', 'sinitita']</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>['santuy', 'naad', 'mager', 'masak', 'ngegrabfood', 'pesan', 'porsi', 'ramean', 'minimum', 'order', 'grabfood', 'diskon', 'sd', 'lupa', 'langgan', 'paket', 'grabunlimited', 'hemat', 'info', 'lengkap', 'sinitita']</t>
         </is>
       </c>
     </row>
@@ -10058,7 +11318,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>['kos', 'bws', 'nyuruh', 'tetangga', 'cowo', 'jemput', 'udh', 'selesai', 'jember', 'coba', 'asa', 'dijodohin', 'njirr', 'grab', 'angkot', 'kyknya', 'bws', 'skripsi', 'jember']</t>
+          <t>['kos', 'bws', 'nyuruh', 'tetangga', 'cowok', 'jemput', 'sudah', 'selesai', 'jember', 'coba', 'berasa', 'dijodohin', 'anjir', 'grab', 'angkot', 'kayaknya', 'bws', 'skripsi', 'jember']</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>['kos', 'bws', 'nyuruh', 'tetangga', 'cowok', 'jemput', 'sudah', 'selesai', 'jember', 'coba', 'asa', 'dijodohin', 'anjir', 'grab', 'angkot', 'kayak', 'bws', 'skripsi', 'jember']</t>
         </is>
       </c>
     </row>
@@ -10096,7 +11361,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>['teaser', 'sikit', 'korang', 'grab', 'bawal', 'sulam', 'today', 'promo', 'price', 'tauuu', 'rm', 'hela', 'exc', 'postage', 'nak']</t>
+          <t>['teaser', 'sikit', 'korang', 'grab', 'bawal', 'sulam', 'today', 'promo', 'price', 'tau', 'rm', 'sehelai', 'exc', 'postage', 'nak']</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>['teaser', 'sikit', 'korang', 'grab', 'bawal', 'sulam', 'today', 'promo', 'price', 'tau', 'rm', 'hela', 'exc', 'postage', 'nak']</t>
         </is>
       </c>
     </row>
@@ -10137,6 +11407,11 @@
           <t>['skincare', 'bulaney', 'treatment', 'essence', 'fullsize', 'awakkk', 'with', 'limited', 'edition', 'stika', 'nak', 'grab']</t>
         </is>
       </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>['skincare', 'bulaney', 'treatment', 'essence', 'fullsize', 'awakkk', 'with', 'limited', 'edition', 'stika', 'nak', 'grab']</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -10175,6 +11450,11 @@
           <t>['pick', 'up', 'point', 'grabgojek', 'terminal', 'soetta']</t>
         </is>
       </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>['pick', 'up', 'point', 'grabgojek', 'terminal', 'soetta']</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -10210,7 +11490,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>['santai', 'ak', 'ditemenin', 'babang', 'grab', 'sampe', 'bkt']</t>
+          <t>['santai', 'aku', 'ditemenin', 'babang', 'grab', 'sampai', 'bkt']</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>['santai', 'aku', 'ditemenin', 'babang', 'grab', 'sampai', 'bkt']</t>
         </is>
       </c>
     </row>
@@ -10248,7 +11533,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>['ditanyain', 'abang', 'grab', 'anter', 'suami', 'single', 'ohh', 'smg', 'ketemu', 'jodoh', 'hati', 'boro', 'pikir', 'skripsi', 'udh', 'beres', 'ovt', 'lgsng', 'hasil', 'mesti', 'ngapain']</t>
+          <t>['ditanyain', 'abang', 'grab', 'diantar', 'suaminya', 'single', 'oh', 'semoga', 'ketemu', 'jodohnya', 'hati', 'boro', 'kepikiran', 'skripsi', 'sudah', 'beres', 'ovt', 'lgsng', 'berhasil', 'mesti', 'mengapai']</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>['ditanyain', 'abang', 'grab', 'antar', 'suami', 'single', 'oh', 'moga', 'ketemu', 'jodoh', 'hati', 'boro', 'pikir', 'skripsi', 'sudah', 'beres', 'ovt', 'lgsng', 'hasil', 'mesti', 'kapai']</t>
         </is>
       </c>
     </row>
@@ -10286,6 +11576,11 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
+          <t>['keberangkatan', 'stasiun', 'mrt', 'istora', 'mandiri', 'stasiun', 'mrt', 'lebak', 'bulus', 'grab', 'jam', 'wib', 'himbau', 'menit', 'aplikasi', 'pedulilindungi', 'terima', 'kasih']</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
           <t>['berangkat', 'stasiun', 'mrt', 'istora', 'mandiri', 'stasiun', 'mrt', 'lebak', 'bulus', 'grab', 'jam', 'wib', 'himbau', 'menit', 'aplikasi', 'pedulilindungi', 'terima', 'kasih']</t>
         </is>
       </c>
@@ -10324,6 +11619,11 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
+          <t>['hi', 'layanan', 'grabcar', 'palu', 'jemput', 'anter', 'kakak', 'tujuan', 'ketersediaan']</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
           <t>['hi', 'layan', 'grabcar', 'palu', 'jemput', 'anter', 'kakak', 'tuju', 'sedia']</t>
         </is>
       </c>
@@ -10365,6 +11665,11 @@
           <t>['bulaney', 'treatment', 'essence', 'fullsize', 'awakkk', 'with', 'limited', 'edition', 'stika', 'nak', 'gra']</t>
         </is>
       </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>['bulaney', 'treatment', 'essence', 'fullsize', 'awakkk', 'with', 'limited', 'edition', 'stika', 'nak', 'gra']</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -10400,7 +11705,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>['order', 'benda', 'je', 'kt', 'grab', 'smpai', 'habis', 'quarantine']</t>
+          <t>['order', 'benda', 'je', 'kita', 'grab', 'sampai', 'habis', 'quarantine']</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>['order', 'benda', 'je', 'kita', 'grab', 'sampai', 'habis', 'quarantine']</t>
         </is>
       </c>
     </row>
@@ -10441,6 +11751,11 @@
           <t>['grab', 'bozz']</t>
         </is>
       </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>['grab', 'bozz']</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -10476,6 +11791,11 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
+          <t>['grab', 'susah', 'vermuknya', 'gilaan', 'kecuali', 'main', 'dalem', 'oprek', 'aplikasi']</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
           <t>['grab', 'susah', 'vermuknya', 'gila', 'kecuali', 'main', 'dalem', 'oprek', 'aplikasi']</t>
         </is>
       </c>
@@ -10514,6 +11834,11 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
+          <t>['kadang', 'ride', 'motor', 'mesti', 'tangan', 'melekit', 'berpeluh', 'selesa', 'gilee', 'solusinya', 'glove', 'korang', 'senang', 'nak', 'pergi', 'ride', 'mudah', 'grab', 'foodpanda', 'link', 'shopee']</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
           <t>['kadang', 'ride', 'motor', 'mesti', 'tangan', 'lekit', 'peluh', 'selesa', 'gilee', 'solusi', 'glove', 'korang', 'senang', 'nak', 'pergi', 'ride', 'mudah', 'grab', 'foodpanda', 'link', 'shopee']</t>
         </is>
       </c>
@@ -10552,7 +11877,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>['suka', 'anter', 'makan', 'jarak', 'rumah', 'jam', 'trs', 'lgsg', 'pulang', 'suka', 'beliin', 'makan', 'apa', 'grab', 'trs', 'ngisi', 'ovo', 'diskon', 'ajak', 'main', 'game', 'apa', 'ngerti', 'nemenin']</t>
+          <t>['suka', 'anter', 'makanan', 'jarak', 'rumah', 'jam', 'terus', 'langsung', 'pulang', 'suka', 'membelikan', 'makan', 'apapun', 'grab', 'terus', 'ngisi', 'ovo', 'diskon', 'diajak', 'main', 'game', 'apapun', 'mengerti', 'nemenin']</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>['suka', 'anter', 'makan', 'jarak', 'rumah', 'jam', 'terus', 'langsung', 'pulang', 'suka', 'beli', 'makan', 'apa', 'grab', 'terus', 'ngisi', 'ovo', 'diskon', 'ajak', 'main', 'game', 'apa', 'erti', 'nemenin']</t>
         </is>
       </c>
     </row>
@@ -10593,6 +11923,11 @@
           <t>['beli', 'cendol', 'kurir', 'grab']</t>
         </is>
       </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>['beli', 'cendol', 'kurir', 'grab']</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -10628,7 +11963,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>['friend', 'pakai', 'majestic', 'satin', 'shawl', 'code', 'ireland', 'cantik', 'terukkk', 'kannn', 'satin', 'shawl', 'wajib']</t>
+          <t>['friend', 'pakai', 'majestic', 'satin', 'shawl', 'code', 'ireland', 'cantik', 'terukkk', 'kan', 'satin', 'shawl', 'wajib']</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>['friend', 'pakai', 'majestic', 'satin', 'shawl', 'code', 'ireland', 'cantik', 'terukkk', 'kan', 'satin', 'shawl', 'wajib']</t>
         </is>
       </c>
     </row>
@@ -10666,7 +12006,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>['selesa', 'grab', 'driver', 'grab', 'ckp', 'makan', 'xrehat', 'plan', 'nak']</t>
+          <t>['selesa', 'grab', 'driver', 'grab', 'cukup', 'makan', 'xrehat', 'plan', 'nak']</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>['selesa', 'grab', 'driver', 'grab', 'cukup', 'makan', 'xrehat', 'plan', 'nak']</t>
         </is>
       </c>
     </row>
@@ -10704,7 +12049,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>['haloo', 'kirim', 'shopee', 'pake', 'grab', 'same', 'day', 'semalem', 'resi', 'kurir', 'pick', 'up']</t>
+          <t>['haloo', 'pengiriman', 'shopee', 'pakai', 'grab', 'same', 'day', 'semalem', 'resi', 'kurir', 'pick', 'up']</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>['haloo', 'kirim', 'shopee', 'pakai', 'grab', 'same', 'day', 'semalem', 'resi', 'kurir', 'pick', 'up']</t>
         </is>
       </c>
     </row>
@@ -10742,6 +12092,11 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
+          <t>['adik', 'mangsa', 'sorang', 'abang', 'meninggal', 'tolong', 'rider', 'grab']</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
           <t>['adik', 'mangsa', 'sorang', 'abang', 'tinggal', 'tolong', 'rider', 'grab']</t>
         </is>
       </c>
@@ -10780,7 +12135,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>['mk', 'kian', 'grab', 'driver', 'era']</t>
+          <t>['maka', 'kian', 'grab', 'driver', 'era']</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>['maka', 'kian', 'grab', 'driver', 'era']</t>
         </is>
       </c>
     </row>
@@ -10821,6 +12181,11 @@
           <t>['help', 'makasihh', 'ayo', 'abisin', 'layout', 'ready', 'stock', 'keach', 'payment', 'via', 'spay', 'dana', 'gopay', 'hit']</t>
         </is>
       </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>['help', 'makasihh', 'ayo', 'abisin', 'layout', 'ready', 'stock', 'keach', 'payment', 'via', 'spay', 'dana', 'gopay', 'hit']</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -10859,6 +12224,11 @@
           <t>['lawoooooooo', 'grab']</t>
         </is>
       </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>['lawoooooooo', 'grab']</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -10894,6 +12264,11 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
+          <t>['prismart', 'promo', 'special', 'price', 'grab', 'fast', 'prismania', 'stok', 'terbatas', 'thank', 'have']</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
           <t>['prismart', 'promo', 'special', 'price', 'grab', 'fast', 'prismania', 'stok', 'batas', 'thank', 'have']</t>
         </is>
       </c>
@@ -10932,7 +12307,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>['peluang', 'grab', 'cepat', 'pulak', 'jake', 'lagi']</t>
+          <t>['peluang', 'grab', 'cepat', 'pula', 'jake', 'lagilah']</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>['peluang', 'grab', 'cepat', 'pula', 'jake', 'lagi']</t>
         </is>
       </c>
     </row>
@@ -10970,7 +12350,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>['warung', 'makan', 'mami', 'suda', 'buka', 'palagan', 'take', 'away', 'grab', 'shopeefood', 'gofood', 'soon']</t>
+          <t>['warung', 'makan', 'mamiku', 'sudah', 'buka', 'palagan', 'take', 'away', 'grab', 'shopeefood', 'gofood', 'soon']</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>['warung', 'makan', 'mami', 'sudah', 'buka', 'palagan', 'take', 'away', 'grab', 'shopeefood', 'gofood', 'soon']</t>
         </is>
       </c>
     </row>
@@ -11008,7 +12393,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>['cewek', 'jemput', 'cowok', 'gojek', 'grab', 'males', 'pick', 'order', 'ratu', 'gws', 'mbak']</t>
+          <t>['cewek', 'jemput', 'cowok', 'gojek', 'grab', 'malas', 'pick', 'order', 'diratukan', 'gws', 'mbak']</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>['cewek', 'jemput', 'cowok', 'gojek', 'grab', 'malas', 'pick', 'order', 'ratu', 'gws', 'mbak']</t>
         </is>
       </c>
     </row>
@@ -11046,6 +12436,11 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
+          <t>['lihatlah', 'pinggang', 'kdj', 'grabable']</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
           <t>['lihat', 'pinggang', 'kdj', 'grabable']</t>
         </is>
       </c>
@@ -11087,6 +12482,11 @@
           <t>['nak', 'coeslaw', 'takda', 'order', 'grab', 'dine']</t>
         </is>
       </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>['nak', 'coeslaw', 'takda', 'order', 'grab', 'dine']</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -11125,6 +12525,11 @@
           <t>['grab', 'mahal', 'seremban', 'takde', 'public', 'transport']</t>
         </is>
       </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>['grab', 'mahal', 'seremban', 'takde', 'public', 'transport']</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -11160,7 +12565,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>['carat', 'cepat', 'mcm', 'nak', 'grab', 'ticket', 'concert', 'laju', 'kahkhakahakah']</t>
+          <t>['carat', 'cepat', 'macam', 'nak', 'grab', 'ticket', 'concert', 'laju', 'kahkhakahakah']</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>['carat', 'cepat', 'macam', 'nak', 'grab', 'ticket', 'concert', 'laju', 'kahkhakahakah']</t>
         </is>
       </c>
     </row>
@@ -11201,6 +12611,11 @@
           <t>['help', 'makasihh', 'ayo', 'abisin', 'layout', 'ready', 'stock', 'keach', 'payment', 'via', 'spay', 'dana', 'gop']</t>
         </is>
       </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>['help', 'makasihh', 'ayo', 'abisin', 'layout', 'ready', 'stock', 'keach', 'payment', 'via', 'spay', 'dana', 'gop']</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -11236,7 +12651,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>['wkwkwkwkwkwk', 'enggapapaa', 'sebenernya', 'kadang', 'abang', 'grab', 'suka', 'nyamar', 'coba', 'ajak', 'kenal', 'mas', 'jomblo']</t>
+          <t>['wkwkwkwkwkwk', 'enggapapaa', 'sebenarnya', 'kadang', 'abang', 'grab', 'suka', 'nyamar', 'coba', 'ajak', 'kenalan', 'masnya', 'jomblo']</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>['wkwkwkwkwkwk', 'enggapapaa', 'benar', 'kadang', 'abang', 'grab', 'suka', 'nyamar', 'coba', 'ajak', 'kenal', 'mas', 'jomblo']</t>
         </is>
       </c>
     </row>
@@ -11274,7 +12694,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>['first', 'time', 'grab', 'motor', 'abang', 'seru', 'takut', 'bgttttt', 'temen', 'sm', 'abang']</t>
+          <t>['first', 'time', 'grab', 'motor', 'abangnya', 'seru', 'takut', 'bgttttt', 'teman', 'sama', 'abangnya']</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>['first', 'time', 'grab', 'motor', 'abang', 'seru', 'takut', 'bgttttt', 'teman', 'sama', 'abang']</t>
         </is>
       </c>
     </row>
@@ -11312,6 +12737,11 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
+          <t>['toerah', 'bang', 'ojol', 'berjaket', 'grab', 'provokator', 'ngeri']</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
           <t>['toerah', 'bang', 'ojol', 'jaket', 'grab', 'provokator', 'ngeri']</t>
         </is>
       </c>
@@ -11350,7 +12780,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>['tahniah', 'dik', 'nnt', 'grab', 'tegur', 'laa', 'kot', 'abg', 'drebar']</t>
+          <t>['tahniah', 'dik', 'nanti', 'grab', 'tegur', 'lah', 'kot', 'abang', 'drebar']</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>['tahniah', 'dik', 'nanti', 'grab', 'tegur', 'lah', 'kot', 'abang', 'drebar']</t>
         </is>
       </c>
     </row>
@@ -11388,7 +12823,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>['grab', 'paket', 'langgan', 'bike', 'minggu', 'guna', 'knp', 'gaada']</t>
+          <t>['grab', 'paket', 'langganan', 'bike', 'seminggu', 'berguna', 'kenapa', 'enggak ada']</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>['grab', 'paket', 'langgan', 'bike', 'minggu', 'guna', 'kenapa', 'enggak ada']</t>
         </is>
       </c>
     </row>
@@ -11426,7 +12866,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>['hbs', 'selesai', 'acara', 'pulang', 'sen', 'grab', 'wwkk']</t>
+          <t>['habis', 'selesai', 'acara', 'pulang', 'pesan', 'grab', 'wwkk']</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>['habis', 'selesai', 'acara', 'pulang', 'pesan', 'grab', 'wwkk']</t>
         </is>
       </c>
     </row>
@@ -11467,6 +12912,11 @@
           <t>['gojek', 'grab', 'gue', 'voucher', 'anak', 'sekolah', 'alias', 'gue', 'boros', 'banget', 'ongkos', 'sekolah', 'anjenggg']</t>
         </is>
       </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>['gojek', 'grab', 'gue', 'voucher', 'anak', 'sekolah', 'alias', 'gue', 'boros', 'banget', 'ongkos', 'sekolah', 'anjenggg']</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -11502,6 +12952,11 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
+          <t>['tinggg', 'masanya', 'prove', 'your', 'senior', 'wrong', 'grab', 'title']</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
           <t>['tinggg', 'masa', 'prove', 'your', 'senior', 'wrong', 'grab', 'title']</t>
         </is>
       </c>
@@ -11540,7 +12995,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>['abang', 'grab', 'kasih', 'tip', 'makasih', 'laper', 'uang', 'kuranguang']</t>
+          <t>['abang', 'grab', 'kasih', 'tip', 'terima kasih', 'laper', 'uang', 'kuranguang']</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>['abang', 'grab', 'kasih', 'tip', 'terima kasih', 'laper', 'uang', 'kuranguang']</t>
         </is>
       </c>
     </row>
@@ -11578,7 +13038,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>['bes', 'terminal', 'lw', 'unpad', 'pati', 'ukur', 'nangor', 'grab', 'grab', 'suka', 'mahal', 'makasih']</t>
+          <t>['bes', 'terminal', 'lu', 'unpad', 'dipati', 'ukur', 'nangor', 'grab', 'grab', 'suka', 'mahal', 'terima kasih']</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>['bes', 'terminal', 'lu', 'unpad', 'pati', 'ukur', 'nangor', 'grab', 'grab', 'suka', 'mahal', 'terima kasih']</t>
         </is>
       </c>
     </row>
@@ -11616,7 +13081,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>['sen', 'grab', 'bike', 'abang', 'dateng', 'pas', 'jalan', 'dekat', 'motor', 'abang', 'motor', 'jatoh', 'samping', 'orgnya', 'kaget', 'panik', 'auto', 'diem', 'ngliatin', 'abngnya', 'blng', 'bantuin', 'sadar', 'lgsg', 'nolongin', 'maaf', 'ye', 'bang']</t>
+          <t>['pesan', 'grab', 'bike', 'abangnya', 'datang', 'pas', 'jalan', 'mendekat', 'motor', 'abang', 'motor', 'jatuh', 'samping', 'orgnya', 'kaget', 'panik', 'auto', 'diam', 'ngliatin', 'abngnya', 'bilang', 'bantuin', 'sadar', 'langsung', 'menolong', 'maaf', 'ye', 'bang']</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>['pesan', 'grab', 'bike', 'abang', 'datang', 'pas', 'jalan', 'dekat', 'motor', 'abang', 'motor', 'jatuh', 'samping', 'orgnya', 'kaget', 'panik', 'auto', 'diam', 'ngliatin', 'abngnya', 'bilang', 'bantuin', 'sadar', 'langsung', 'tolong', 'maaf', 'ye', 'bang']</t>
         </is>
       </c>
     </row>
@@ -11654,7 +13124,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>['gituu', 'kyknya', 'coba', 'grab', 'ini', 'lumayan']</t>
+          <t>['begitu', 'kayaknya', 'coba', 'grab', 'ini', 'lumayan']</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>['begitu', 'kayak', 'coba', 'grab', 'ini', 'lumayan']</t>
         </is>
       </c>
     </row>
@@ -11695,6 +13170,11 @@
           <t>['order', 'grab', 'rider', 'kol', 'suruh', 'amik']</t>
         </is>
       </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>['order', 'grab', 'rider', 'kol', 'suruh', 'amik']</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -11730,7 +13210,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>['keje', 'grab', 'biskut', 'tauuuu', 'gerammmm', 'gigit']</t>
+          <t>['keje', 'grab', 'biskut', 'tau', 'gerammmm', 'gigit']</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>['keje', 'grab', 'biskut', 'tau', 'gerammmm', 'gigit']</t>
         </is>
       </c>
     </row>
@@ -11771,6 +13256,11 @@
           <t>['open', 'verif', 'nomor', 'grab', 'drop', 'fee']</t>
         </is>
       </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>['open', 'verif', 'nomor', 'grab', 'drop', 'fee']</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -11806,7 +13296,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>['sumpah', 'murah', 'giler', 'promo', 'rm', 'cup', 'tengok', 'bayar', 'rm', 'jer', 'cup', 'delivery', 'pu']</t>
+          <t>['sumpah', 'murah', 'giler', 'promo', 'rm', 'cup', 'tengok', 'bayar', 'rm', 'jer', 'cup', 'delivery', 'punya']</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>['sumpah', 'murah', 'giler', 'promo', 'rm', 'cup', 'tengok', 'bayar', 'rm', 'jer', 'cup', 'delivery', 'punya']</t>
         </is>
       </c>
     </row>
@@ -11847,6 +13342,11 @@
           <t>['grab', 'kesana']</t>
         </is>
       </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>['grab', 'kesana']</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -11882,6 +13382,11 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
+          <t>['claim', 'voucher', 'grab', 'discount', 'voucher', 'delivery', 'voucher', 'ye', 'berbaloi', 'penjimatan', 'korang']</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
           <t>['claim', 'voucher', 'grab', 'discount', 'voucher', 'delivery', 'voucher', 'ye', 'berbaloi', 'jimat', 'korang']</t>
         </is>
       </c>
@@ -11923,6 +13428,11 @@
           <t>['grab', 'sold', 'out']</t>
         </is>
       </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>['grab', 'sold', 'out']</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -11961,6 +13471,11 @@
           <t>['takpelah', 'esok', 'grab', 'je']</t>
         </is>
       </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>['takpelah', 'esok', 'grab', 'je']</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -11999,6 +13514,11 @@
           <t>['abang', 'grab', 'ngan', 'abang', 'wan', 'cyplash', 'best']</t>
         </is>
       </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>['abang', 'grab', 'ngan', 'abang', 'wan', 'cyplash', 'best']</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -12034,7 +13554,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>['nunggu', 'abang', 'grab', 'food']</t>
+          <t>['menunggu', 'abang', 'grab', 'food']</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>['tunggu', 'abang', 'grab', 'food']</t>
         </is>
       </c>
     </row>
@@ -12072,7 +13597,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>['fp', 'kawasan', 'kecik', 'jitra', 'anak', 'bukit', 'grab', 'jitra', 'simpang', 'segi']</t>
+          <t>['fp', 'kawasan', 'kecil', 'jitra', 'anak', 'bukit', 'grab', 'jitra', 'simpang', 'segi']</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>['fp', 'kawasan', 'kecil', 'jitra', 'anak', 'bukit', 'grab', 'jitra', 'simpang', 'segi']</t>
         </is>
       </c>
     </row>
@@ -12113,6 +13643,11 @@
           <t>['grab', 'fp']</t>
         </is>
       </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>['grab', 'fp']</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -12148,7 +13683,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>['gapunya', 'grab', 'bln', 'nyari', 'temen', 'patungan', 'lumayan', 'menghe']</t>
+          <t>['enggak punya', 'grab', 'bulan', 'mencari', 'teman', 'patungan', 'lumayan', 'menghe']</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>['enggak punya', 'grab', 'bulan', 'cari', 'teman', 'patungan', 'lumayan', 'menghe']</t>
         </is>
       </c>
     </row>
@@ -12186,7 +13726,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>['bln', 'coba', 'cek', 'grab']</t>
+          <t>['bulan', 'coba', 'cek', 'grab']</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>['bulan', 'coba', 'cek', 'grab']</t>
         </is>
       </c>
     </row>
@@ -12227,6 +13772,11 @@
           <t>['skim', 'fp', 'grab', 'untung', 'skim']</t>
         </is>
       </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>['skim', 'fp', 'grab', 'untung', 'skim']</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -12265,6 +13815,11 @@
           <t>['bkt', 'city', 'lang', 'grab', 'eueuueue', 'gutom', 'nako']</t>
         </is>
       </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>['bkt', 'city', 'lang', 'grab', 'eueuueue', 'gutom', 'nako']</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -12300,6 +13855,11 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
+          <t>['grab', 'gocar', 'hotel', 'banyakan', 'taxi', 'dalem', 'daerah', 'bogo']</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
           <t>['grab', 'gocar', 'hotel', 'banyak', 'taxi', 'dalem', 'daerah', 'bogo']</t>
         </is>
       </c>
@@ -12338,7 +13898,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>['syukur', 'gue', 'kemaren', 'grab', 'stella', 'jeruk']</t>
+          <t>['bersyukur', 'gue', 'kemarin', 'grab', 'stella', 'jeruknya']</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>['syukur', 'gue', 'kemarin', 'grab', 'stella', 'jeruk']</t>
         </is>
       </c>
     </row>
@@ -12379,6 +13944,11 @@
           <t>['twt', 'awak', 'nak', 'thanks', 'huda', 'grab']</t>
         </is>
       </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>['twt', 'awak', 'nak', 'thanks', 'huda', 'grab']</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -12414,7 +13984,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>['neng', 'abang', 'grab', 'pantun']</t>
+          <t>['senang', 'abang', 'grab', 'pantun']</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>['senang', 'abang', 'grab', 'pantun']</t>
         </is>
       </c>
     </row>
@@ -12452,7 +14027,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>['tolong', 'edukasi', 'driver', 'gin', 'mesen', 'grab', 'nyokap', 'pesan', 'jarak']</t>
+          <t>['tolong', 'diedukasi', 'driver', 'begini', 'mesen', 'grab', 'nyokap', 'pesan', 'jarak']</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>['tolong', 'edukasi', 'driver', 'begini', 'mesen', 'grab', 'nyokap', 'pesan', 'jarak']</t>
         </is>
       </c>
     </row>
@@ -12490,7 +14070,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>['bantu', 'larisin', 'gais', 'buka', 'takoyaki', 'kuy', 'dateng', 'indomaret', 'benowo', 'sen']</t>
+          <t>['bantu', 'larisin', 'gais', 'buka', 'takoyaki', 'yuk', 'datang', 'indomaret', 'benowo', 'pesan']</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>['bantu', 'larisin', 'gais', 'buka', 'takoyaki', 'yuk', 'datang', 'indomaret', 'benowo', 'pesan']</t>
         </is>
       </c>
     </row>
@@ -12528,6 +14113,11 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
+          <t>['lepas', 'ward', 'teringin', 'makan', 'nasib', 'grab']</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
           <t>['lepas', 'ward', 'ingin', 'makan', 'nasib', 'grab']</t>
         </is>
       </c>
@@ -12566,7 +14156,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>['storehq', 'open', 'order', 'cookies', 'size', 'postage', 'next', 'week', 'selasa', 'craving', 'grab', 'kara']</t>
+          <t>['storehq', 'open', 'order', 'cookies', 'size', 'postage', 'next', 'wig', 'selasa', 'craving', 'grab', 'sekara']</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>['storehq', 'open', 'order', 'cookies', 'size', 'postage', 'next', 'wig', 'selasa', 'craving', 'grab', 'kara']</t>
         </is>
       </c>
     </row>
@@ -12607,6 +14202,11 @@
           <t>['fpgrab', 'full', 'time', 'jujur', 'takda', 'cover', 'cover']</t>
         </is>
       </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>['fpgrab', 'full', 'time', 'jujur', 'takda', 'cover', 'cover']</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -12645,6 +14245,11 @@
           <t>['offer', 'helok', 'grab', 'jelah', 'kat', 'toxic', 'nak', 'mampos', 'office', 'politik', 'gila', 'baben']</t>
         </is>
       </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>['offer', 'helok', 'grab', 'jelah', 'kat', 'toxic', 'nak', 'mampos', 'office', 'politik', 'gila', 'baben']</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -12680,7 +14285,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>['ono', 'ikiii', 'cedak', 'omah', 'wae', 'grab', 'barang']</t>
+          <t>['sono', 'ikiii', 'cedak', 'omah', 'wae', 'grab', 'barang']</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>['sono', 'ikiii', 'cedak', 'omah', 'wae', 'grab', 'barang']</t>
         </is>
       </c>
     </row>
@@ -12721,6 +14331,11 @@
           <t>['moots', 'grab', 'tampan', 'bintang']</t>
         </is>
       </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>['moots', 'grab', 'tampan', 'bintang']</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -12756,6 +14371,11 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
+          <t>['kuantan', 'okay', 'grab', 'senang']</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
           <t>['antan', 'okay', 'grab', 'senang']</t>
         </is>
       </c>
@@ -12797,6 +14417,11 @@
           <t>['tunggu', 'grab', 'link']</t>
         </is>
       </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>['tunggu', 'grab', 'link']</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -12835,6 +14460,11 @@
           <t>['gajadi', 'grab', 'doi']</t>
         </is>
       </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>['gajadi', 'grab', 'doi']</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -12870,7 +14500,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>['budak', 'pandu', 'grab', 'car', 'skrng', 'handsome']</t>
+          <t>['budak', 'pemandu', 'grab', 'car', 'sekarang', 'handsome']</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>['budak', 'pandu', 'grab', 'car', 'sekarang', 'handsome']</t>
         </is>
       </c>
     </row>
@@ -12911,6 +14546,11 @@
           <t>['grab', 'liar']</t>
         </is>
       </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>['grab', 'liar']</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -12946,6 +14586,11 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
+          <t>['grab', 'car', 'pare', 'kediri']</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
           <t>['grab', 'car', 'pare', 'diri']</t>
         </is>
       </c>
@@ -12984,7 +14629,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>['binmas', 'kel', 'aiptu', 'agus', 'sambang', 'komunitas', 'ojol', 'grab', 'backgo', 'jack', 'bpadit', 'pangkal', 'ojol', 'pos']</t>
+          <t>['binmas', 'keluarga', 'aiptu', 'agus', 'sambang', 'komunitas', 'ojol', 'grab', 'backgo', 'jack', 'bpadit', 'pangkalan', 'ojol', 'pos']</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>['binmas', 'keluarga', 'aiptu', 'agus', 'sambang', 'komunitas', 'ojol', 'grab', 'backgo', 'jack', 'bpadit', 'pangkal', 'ojol', 'pos']</t>
         </is>
       </c>
     </row>
@@ -13025,6 +14675,11 @@
           <t>['nombor', 'silap', 'nombor', 'situ', 'grab']</t>
         </is>
       </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>['nombor', 'silap', 'nombor', 'situ', 'grab']</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -13063,6 +14718,11 @@
           <t>['order', 'grab', 'gede', 'huft', 'sopi']</t>
         </is>
       </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>['order', 'grab', 'gede', 'huft', 'sopi']</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -13098,7 +14758,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>['alas', 'knp', 'jarang', 'main', 'gaboleh', 'mana', 'anter', 'jemput', 'sdgkan', 'papi', 'sibuk', 'gaboleh', 'motor', 'grab', 'car', 'hrs', 'temennya', 'sebenernya', 'temenku', 'santai', 'anter', 'jemput', 'main', 'aku', 'gaenakan', 'sering']</t>
+          <t>['alasan', 'kenapa', 'jarang', 'main', 'gaboleh', 'kemana', 'diantar', 'jemput', 'sdgkan', 'papiku', 'sibuk', 'gaboleh', 'motor', 'grab', 'car', 'harus', 'temannya', 'sebenarnya', 'temenku', 'santai', 'anter', 'jemput', 'main', 'akunya', 'gaenakan', 'keseringan']</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>['alas', 'kenapa', 'jarang', 'main', 'gaboleh', 'mana', 'antar', 'jemput', 'sdgkan', 'papi', 'sibuk', 'gaboleh', 'motor', 'grab', 'car', 'harus', 'teman', 'benar', 'temenku', 'santai', 'anter', 'jemput', 'main', 'aku', 'gaenakan', 'sering']</t>
         </is>
       </c>
     </row>
@@ -13136,7 +14801,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>['pake', 'grab', 'promo']</t>
+          <t>['pakai', 'grab', 'promo']</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>['pakai', 'grab', 'promo']</t>
         </is>
       </c>
     </row>
@@ -13177,6 +14847,11 @@
           <t>['chuross', 'ummu', 'hafsah', 'situ', 'gojek', 'grab', 'sopud']</t>
         </is>
       </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>['chuross', 'ummu', 'hafsah', 'situ', 'gojek', 'grab', 'sopud']</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -13212,7 +14887,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>['dago', 'pakar', 'dobel', 'pake', 'hoodie', 'jaket', 'grab', 'rasa', 'dingin']</t>
+          <t>['dago', 'pakar', 'dobel', 'pakai', 'hoodie', 'jaket', 'grab', 'kerasa', 'dingin']</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>['dago', 'pakar', 'dobel', 'pakai', 'hoodie', 'jaket', 'grab', 'rasa', 'dingin']</t>
         </is>
       </c>
     </row>
@@ -13253,6 +14933,11 @@
           <t>['aji', 'buka', 'grab', 'oraa', 'larisane']</t>
         </is>
       </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>['aji', 'buka', 'grab', 'oraa', 'larisane']</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -13291,6 +14976,11 @@
           <t>['nakhare', 'lawak', 'syal', 'grab', 'kol']</t>
         </is>
       </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>['nakhare', 'lawak', 'syal', 'grab', 'kol']</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -13326,7 +15016,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>['grab', 'lgi']</t>
+          <t>['grab', 'lagi']</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>['grab', 'lagi']</t>
         </is>
       </c>
     </row>
@@ -13367,6 +15062,11 @@
           <t>['light', 'capture', 'cafe', 'turun', 'mrt', 'pasar', 'seni', 'jalan', 'kaki', 'grab', 'nak', 'cepat', 'interior']</t>
         </is>
       </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>['light', 'capture', 'cafe', 'turun', 'mrt', 'pasar', 'seni', 'jalan', 'kaki', 'grab', 'nak', 'cepat', 'interior']</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -13405,6 +15105,11 @@
           <t>['done', 'bismillah', 'modal', 'grab']</t>
         </is>
       </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>['done', 'bismillah', 'modal', 'grab']</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -13440,6 +15145,11 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
+          <t>['anjayy', 'abang', 'ojol', 'grab', 'now', 'langganan', 'gue', 'telat']</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
           <t>['anjayy', 'abang', 'ojol', 'grab', 'now', 'langgan', 'gue', 'telat']</t>
         </is>
       </c>
@@ -13478,6 +15188,11 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
+          <t>['hutang', 'puluh', 'ribu', 'gaji', 'sebulan', 'budak', 'habis', 'spm', 'pilih', 'grab', 'panda', 'je', 'hutang', 'takda', 'gaji', 'sedap']</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
           <t>['hutang', 'puluh', 'ribu', 'gaji', 'bulan', 'budak', 'habis', 'spm', 'pilih', 'grab', 'panda', 'je', 'hutang', 'takda', 'gaji', 'sedap']</t>
         </is>
       </c>
@@ -13519,6 +15234,11 @@
           <t>['duduk', 'heaven', 'benda', 'mall', 'grab', 'food', 'shopee', 'food', 'foodpanda', 'senang']</t>
         </is>
       </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>['duduk', 'heaven', 'benda', 'mall', 'grab', 'food', 'shopee', 'food', 'foodpanda', 'senang']</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -13554,7 +15274,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>['grab', 'udh', 'mnunduk', 'ak', 'lgi', 'ksl', 'tsenyum', 'gkpp', 'dikklo', 'diselingkuhin', 'mreka', 'rugi', 'dh', 'jhatin', 'cwo', 'zodiak', 'leo']</t>
+          <t>['grab', 'sudah', 'mnunduk', 'aku', 'lagi', 'ksl', 'tsenyum', 'gkpp', 'dikklo', 'diselingkuhin', 'mereka', 'rugi', 'deh', 'jhatin', 'cowok', 'zodiak', 'leo']</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>['grab', 'sudah', 'mnunduk', 'aku', 'lagi', 'ksl', 'tsenyum', 'gkpp', 'dikklo', 'diselingkuhin', 'mereka', 'rugi', 'deh', 'jhatin', 'cowok', 'zodiak', 'leo']</t>
         </is>
       </c>
     </row>
@@ -13592,6 +15317,11 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
+          <t>['grab', 'janji', 'taat', 'disiplin', 'grab', 'beraturan', 'manajemnnya', 'mafia']</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
           <t>['grab', 'janji', 'taat', 'disiplin', 'grab', 'atur', 'manajemnnya', 'mafia']</t>
         </is>
       </c>
@@ -13630,7 +15360,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>['euh', 'jam', 'gin', 'angkot', 'males', 'banget', 'grab', 'muahal', 'rek']</t>
+          <t>['euh', 'jam', 'segini', 'angkot', 'malas', 'banget', 'grab', 'muahal', 'rek']</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>['euh', 'jam', 'gin', 'angkot', 'malas', 'banget', 'grab', 'muahal', 'rek']</t>
         </is>
       </c>
     </row>
@@ -13671,6 +15406,11 @@
           <t>['buka', 'grab', 'beb', 'malas', 'nak', 'situ']</t>
         </is>
       </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>['buka', 'grab', 'beb', 'malas', 'nak', 'situ']</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -13706,7 +15446,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>['ku', 'nemu', 'yaaaa', 'grab']</t>
+          <t>['ku', 'nemu', 'ya', 'grab']</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>['ku', 'nemu', 'ya', 'grab']</t>
         </is>
       </c>
     </row>
@@ -13747,6 +15492,11 @@
           <t>['aplicator', 'jelek', 'gojek', 'grab', 'gojek', 'aplicator', 'manusiawi']</t>
         </is>
       </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>['aplicator', 'jelek', 'gojek', 'grab', 'gojek', 'aplicator', 'manusiawi']</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -13782,6 +15532,11 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
+          <t>['bab', 'cedok', 'mencedok', 'korang', 'brader', 'grab', 'foodpanda', 'diorang', 'arif']</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
           <t>['bab', 'cedok', 'cedok', 'korang', 'brader', 'grab', 'foodpanda', 'orang', 'arif']</t>
         </is>
       </c>
@@ -13823,6 +15578,11 @@
           <t>['need', 'voc', 'grab', 'bike', 'diskon', 'stasiun', 'drop', 'fee']</t>
         </is>
       </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>['need', 'voc', 'grab', 'bike', 'diskon', 'stasiun', 'drop', 'fee']</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -13858,7 +15618,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>['ui', 'airasia', 'food', 'tenantnya', 'tetep', 'worth', 'promonya', 'grab', 'shopee', 'food']</t>
+          <t>['ui', 'airasia', 'food', 'tenantnya', 'tetap', 'worth', 'promonya', 'grab', 'shopee', 'food']</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>['ui', 'airasia', 'food', 'tenantnya', 'tetap', 'worth', 'promonya', 'grab', 'shopee', 'food']</t>
         </is>
       </c>
     </row>
@@ -13896,7 +15661,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>['oohhh', 'myy', 'cantik', 'mcm', 'nak', 'grab']</t>
+          <t>['oohhh', 'myy', 'cantik', 'macam', 'nak', 'grab']</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>['oohhh', 'myy', 'cantik', 'macam', 'nak', 'grab']</t>
         </is>
       </c>
     </row>
@@ -13937,6 +15707,11 @@
           <t>['hi', 'awak', 'nak', 'grab', 'inai', 'che', 'dm']</t>
         </is>
       </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>['hi', 'awak', 'nak', 'grab', 'inai', 'che', 'dm']</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -13975,6 +15750,11 @@
           <t>['sherry', 'tenang', 'grab', 'daftar']</t>
         </is>
       </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>['sherry', 'tenang', 'grab', 'daftar']</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -14010,7 +15790,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>['gapapa', 'gada', 'pacar', 'abang', 'grab']</t>
+          <t>['gapapa', 'enggak ada', 'pacar', 'abang', 'grab']</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>['gapapa', 'enggak ada', 'pacar', 'abang', 'grab']</t>
         </is>
       </c>
     </row>
@@ -14048,7 +15833,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>['tolong', 'grab', 'bike', 'sm', 'goride', 'banyakij', 'voc', 'diskon', 'ak', 'miskin', 'anjrit']</t>
+          <t>['tolong', 'grab', 'bike', 'sama', 'goride', 'banyakij', 'voc', 'diskon', 'aku', 'miskin', 'anjrit']</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>['tolong', 'grab', 'bike', 'sama', 'goride', 'banyakij', 'voc', 'diskon', 'aku', 'miskin', 'anjrit']</t>
         </is>
       </c>
     </row>
@@ -14086,7 +15876,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>['inumki', 'ret', 'dh', 'masak', 'buang', 'karen', 'je', 'bayor', 'grab', 'memaheiii', 'makan', 'lumut']</t>
+          <t>['inumki', 'reti', 'deh', 'masak', 'buang', 'karen', 'je', 'bayor', 'grab', 'memaheiii', 'makanan', 'lumut']</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>['inumki', 'ret', 'deh', 'masak', 'buang', 'karen', 'je', 'bayor', 'grab', 'memaheiii', 'makan', 'lumut']</t>
         </is>
       </c>
     </row>
@@ -14124,7 +15919,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>['ak', 'grab']</t>
+          <t>['aku', 'grab']</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>['aku', 'grab']</t>
         </is>
       </c>
     </row>
@@ -14162,6 +15962,11 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
+          <t>['pekerjaan', 'emak', 'gue', 'jam', 'segini', 'disuruh', 'beli', 'buah', 'grab']</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
           <t>['kerja', 'emak', 'gue', 'jam', 'gin', 'suruh', 'beli', 'buah', 'grab']</t>
         </is>
       </c>
@@ -14203,6 +16008,11 @@
           <t>['respon', 'terima', 'kasih', 'grab']</t>
         </is>
       </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>['respon', 'terima', 'kasih', 'grab']</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -14241,6 +16051,11 @@
           <t>['abang', 'grab', 'food', 'mbak', 'rumah']</t>
         </is>
       </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>['abang', 'grab', 'food', 'mbak', 'rumah']</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -14276,7 +16091,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>['pamer', 'gwejh', 'dapet', 'abang', 'grab', 'pake', 'mtor', 'listrik']</t>
+          <t>['pamer', 'gwejh', 'dapat', 'abang', 'grab', 'pakai', 'mtor', 'listrik']</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>['pamer', 'gwejh', 'dapat', 'abang', 'grab', 'pakai', 'mtor', 'listrik']</t>
         </is>
       </c>
     </row>
@@ -14314,7 +16134,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>['sendu', 'grab', 'order', 'pastu', 'sidai', 'harap', 'nnti', 'order', 'rancak', 'aminnn']</t>
+          <t>['sendu', 'grab', 'order', 'pastu', 'sidai', 'harap', 'nanti', 'order', 'rancak', 'amin']</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>['sendu', 'grab', 'order', 'pastu', 'sidai', 'harap', 'nanti', 'order', 'rancak', 'amin']</t>
         </is>
       </c>
     </row>
@@ -14352,7 +16177,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>['hibur', 'tq', 'abg', 'grab']</t>
+          <t>['terhibur', 'tq', 'abang', 'grab']</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>['hibur', 'tq', 'abang', 'grab']</t>
         </is>
       </c>
     </row>
@@ -14390,6 +16220,11 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
+          <t>['demam', 'kebah', 'berselera', 'grab']</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
           <t>['demam', 'kebah', 'selera', 'grab']</t>
         </is>
       </c>
@@ -14428,7 +16263,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>['trun', 'grab', 'mntapku', 'teduh', 'abng', 'sun', 'kh', 'trsnyum', 'indah', 'ingin', 'hnylah', 'helm', 'kmbali', 'ohh']</t>
+          <t>['turun', 'grab', 'mntapku', 'teduh', 'abng', 'sun', 'kah', 'trsnyum', 'indah', 'kuinginkan', 'hnylah', 'helmku', 'kembali', 'oh']</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>['turun', 'grab', 'mntapku', 'teduh', 'abng', 'sun', 'kah', 'trsnyum', 'indah', 'ingin', 'hnylah', 'helm', 'kembali', 'oh']</t>
         </is>
       </c>
     </row>
@@ -14466,7 +16306,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>['info', 'driver', 'grab', 'mangkal', 'ganteng', 'bangett', 'nebeng']</t>
+          <t>['info', 'driver', 'grab', 'mangkal', 'ganteng', 'banget', 'nebeng']</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>['info', 'driver', 'grab', 'mangkal', 'ganteng', 'banget', 'nebeng']</t>
         </is>
       </c>
     </row>
@@ -14504,7 +16349,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>['baca', 'baca', 'grab', 'grab', 'gbs', 'login', 'ahaha']</t>
+          <t>['baca', 'baca', 'grab', 'grab', 'enggak bisa', 'login', 'ahaha']</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>['baca', 'baca', 'grab', 'grab', 'enggak bisa', 'login', 'ahaha']</t>
         </is>
       </c>
     </row>
@@ -14542,7 +16392,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>['grab', 'bisnis', 'indonesia', 'make', 'sense', 'induk', 'usaha', 'grab', 'singapura', 'pindah', 'indonesia']</t>
+          <t>['grab', 'bisnisnya', 'indonesia', 'memakai', 'sense', 'induk', 'usaha', 'grab', 'singapura', 'pindah', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>['grab', 'bisnis', 'indonesia', 'pakai', 'sense', 'induk', 'usaha', 'grab', 'singapura', 'pindah', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -14580,7 +16435,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>['asli', 'grab', 'bike', 'mahal', 'ajar', 'kaya', 'mana', 'hrs', 'sm', 'ojol', 'pls', 'tambahin', 'promo', 'gue', 'pake', 'promo', 'grabaerek']</t>
+          <t>['asli', 'grab', 'bike', 'mahal', 'pelajar', 'kayak', 'kemana', 'harus', 'sama', 'ojol', 'pls', 'tambahkan', 'promo', 'gue', 'pakai', 'promo', 'grabaerek']</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>['asli', 'grab', 'bike', 'mahal', 'ajar', 'kayak', 'mana', 'harus', 'sama', 'ojol', 'pls', 'tambah', 'promo', 'gue', 'pakai', 'promo', 'grabaerek']</t>
         </is>
       </c>
     </row>
@@ -14621,6 +16481,11 @@
           <t>['nak', 'duduk', 'klselangor', 'wajib', 'kereta', 'je', 'takde', 'kereta', 'susah', 'nak', 'manamana', 'grab']</t>
         </is>
       </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>['nak', 'duduk', 'klselangor', 'wajib', 'kereta', 'je', 'takde', 'kereta', 'susah', 'nak', 'manamana', 'grab']</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -14656,6 +16521,11 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
+          <t>['ulala', 'iyaya', 'itemnya', 'jaket', 'grab']</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
           <t>['ulala', 'iyaya', 'item', 'jaket', 'grab']</t>
         </is>
       </c>
@@ -14694,6 +16564,11 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
+          <t>['takde', 'kereta', 'takkan', 'nak', 'grab']</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
           <t>['takde', 'kereta', 'tak', 'nak', 'grab']</t>
         </is>
       </c>
@@ -14735,6 +16610,11 @@
           <t>['capek', 'banget', 'nandain', 'alamat', 'rumah', 'algoritma', 'ngunci', 'sesuai']</t>
         </is>
       </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>['capek', 'banget', 'nandain', 'alamat', 'rumah', 'algoritma', 'ngunci', 'sesuai']</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -14770,7 +16650,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>['beli', 'kopi', 'gograb', 'food', 'pas', 'liat', 'harga', 'kaget', 'mahils', 'mending', 'motor', 'bentar', 'beli', 'toko']</t>
+          <t>['beli', 'kopi', 'gograb', 'food', 'pas', 'lihat', 'harganya', 'kaget', 'mahils', 'mending', 'motoran', 'bentar', 'beli', 'tokonya']</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>['beli', 'kopi', 'gograb', 'food', 'pas', 'lihat', 'harga', 'kaget', 'mahils', 'mending', 'motor', 'bentar', 'beli', 'toko']</t>
         </is>
       </c>
     </row>
@@ -14808,7 +16693,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>['muke', 'mcm', 'nak', 'suruh', 'keje', 'grab', 'rider', 'kau', 'agakla']</t>
+          <t>['muka', 'macam', 'nak', 'suruh', 'keje', 'grab', 'rider', 'kau', 'agakla']</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>['muka', 'macam', 'nak', 'suruh', 'keje', 'grab', 'rider', 'kau', 'agakla']</t>
         </is>
       </c>
     </row>
@@ -14846,7 +16736,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>['kids', 'eskalokal', 'bayuaji', 'sopir', 'grab', 'wujud', 'visualisasi', 'udh', 'tinggal', 'tambahin', 'playlistnya']</t>
+          <t>['kids', 'eskalokal', 'bayuaji', 'sopir', 'grab', 'terwujud', 'visualisasinya', 'sudah', 'tinggal', 'tambahkan', 'playlistnya']</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>['kids', 'eskalokal', 'bayuaji', 'sopir', 'grab', 'wujud', 'visualisasi', 'sudah', 'tinggal', 'tambah', 'playlistnya']</t>
         </is>
       </c>
     </row>
@@ -14884,6 +16779,11 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
+          <t>['nice', 'try', 'pdrm', 'bertopengkan', 'grab']</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
           <t>['nice', 'try', 'pdrm', 'topeng', 'grab']</t>
         </is>
       </c>
@@ -14925,6 +16825,11 @@
           <t>['rezeki', 'phone', 'personal', 'phone', 'phone', 'grab', 'battery', 'pon', 'drain']</t>
         </is>
       </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>['rezeki', 'phone', 'personal', 'phone', 'phone', 'grab', 'battery', 'pon', 'drain']</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -14960,7 +16865,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>['ko', 'lepas', 'pastu', 'grab', 'penat', 'yall', 'try']</t>
+          <t>['kok', 'lepas', 'pastu', 'grab', 'penat', 'yall', 'try']</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>['kok', 'lepas', 'pastu', 'grab', 'penat', 'yall', 'try']</t>
         </is>
       </c>
     </row>
@@ -14998,7 +16908,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>['pake', 'helm', 'grab', 'jaket', 'shopee', 'kolor', 'wong', 'edan']</t>
+          <t>['pakai', 'helm', 'grab', 'jaket', 'shopee', 'koloran', 'wongan', 'edan']</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>['pakai', 'helm', 'grab', 'jaket', 'shopee', 'kolor', 'wong', 'edan']</t>
         </is>
       </c>
     </row>
@@ -15039,6 +16954,11 @@
           <t>['kemarin', 'beli', 'diskon', 'grab']</t>
         </is>
       </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>['kemarin', 'beli', 'diskon', 'grab']</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -15074,7 +16994,12 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>['takda', 'nak', 'hantar', 'office', 'hainimalasnya', 'nak', 'grab', 'pintu', 'bukak']</t>
+          <t>['takda', 'nak', 'hantar', 'office', 'hainimalasnya', 'nak', 'grab', 'pintu', 'buka']</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>['takda', 'nak', 'hantar', 'office', 'hainimalasnya', 'nak', 'grab', 'pintu', 'buka']</t>
         </is>
       </c>
     </row>
@@ -15112,7 +17037,12 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>['driver', 'grab', 'kalang', 'bawak', 'pria', 'wanita', 'hantu', 'sempa']</t>
+          <t>['driver', 'grab', 'kalangan', 'bawa', 'pria', 'wanita', 'hantu', 'sempa']</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>['driver', 'grab', 'kalang', 'bawa', 'pria', 'wanita', 'hantu', 'sempa']</t>
         </is>
       </c>
     </row>
@@ -15153,6 +17083,11 @@
           <t>['grab', 'lamaaaaaa']</t>
         </is>
       </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>['grab', 'lamaaaaaa']</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -15191,6 +17126,11 @@
           <t>['hii', 'sharing', 'promo', 'disney', 'grab', 'disney', 'login', 'device', 'sharing', 'korang', 'dap']</t>
         </is>
       </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>['hii', 'sharing', 'promo', 'disney', 'grab', 'disney', 'login', 'device', 'sharing', 'korang', 'dap']</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -15229,6 +17169,11 @@
           <t>['ang', 'mahal', 'grab', 'skl']</t>
         </is>
       </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>['ang', 'mahal', 'grab', 'skl']</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -15264,7 +17209,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>['mimpi', 'jemput', 'youngk', 'plg', 'wamil', 'cerita', 'grab', 'salah', 'mobil', 'isi', 'sm', 'dow']</t>
+          <t>['mimpi', 'jemput', 'youngk', 'pulang', 'wamil', 'ceritanya', 'grab', 'salah', 'mobil', 'isinya', 'sama', 'dow']</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>['mimpi', 'jemput', 'youngk', 'pulang', 'wamil', 'cerita', 'grab', 'salah', 'mobil', 'isi', 'sama', 'dow']</t>
         </is>
       </c>
     </row>
@@ -15302,7 +17252,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>['driver', 'grab', 'ku', 'barusan', 'jalan', 'cerita', 'kiprah', 'beliau', 'geger', 'gedhennya', 'kelompok', 'ojol', 'jogja', 'momen', 'viral', 'facebook', 'bawa', 'tongkat', 'kayu', 'pake', 'sepatu', 'biru']</t>
+          <t>['driver', 'grab', 'ku', 'barusan', 'jalan', 'menceritakan', 'kiprah', 'beliau', 'geger', 'gedhennya', 'kelompok', 'ojol', 'jogja', 'momen', 'viral', 'facebook', 'bawa', 'tongkat', 'kayu', 'pakai', 'sepatu', 'biru']</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>['driver', 'grab', 'ku', 'barusan', 'jalan', 'cerita', 'kiprah', 'beliau', 'geger', 'gedhennya', 'kelompok', 'ojol', 'jogja', 'momen', 'viral', 'facebook', 'bawa', 'tongkat', 'kayu', 'pakai', 'sepatu', 'biru']</t>
         </is>
       </c>
     </row>
@@ -15343,6 +17298,11 @@
           <t>['main', 'top', 'up', 'tng', 'last', 'grab']</t>
         </is>
       </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>['main', 'top', 'up', 'tng', 'last', 'grab']</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -15378,7 +17338,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>['makasih', 'akbar', 'bikin', 'repot', 'niat', 'hati', 'sen', 'grab', 'tuju', 'terminal', 'ojek', 'konvensional', 'cari', 'obat', 'keliling', 'beliau', 'ikhlas', 'nganterin', 'sampe', 'obat', 'anter', 'rmh', 'sen', 'app']</t>
+          <t>['terima kasih', 'akbar', 'dibikin', 'repot', 'niat', 'hati', 'pesan', 'grab', 'tujuan', 'terminal', 'ojek', 'konvensional', 'cari', 'obat', 'kelilingnya', 'beliau', 'ikhlas', 'mengantarkan', 'sampai', 'obatnya', 'diantar', 'rumah', 'pesan', 'app']</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'akbar', 'bikin', 'repot', 'niat', 'hati', 'pesan', 'grab', 'tuju', 'terminal', 'ojek', 'konvensional', 'cari', 'obat', 'keliling', 'beliau', 'ikhlas', 'antar', 'sampai', 'obat', 'antar', 'rumah', 'pesan', 'app']</t>
         </is>
       </c>
     </row>
@@ -15416,7 +17381,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>['paksa', 'grab', 'sbb', 'larat', 'lrt']</t>
+          <t>['terpaksa', 'grab', 'sebab', 'larat', 'lrt']</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>['paksa', 'grab', 'sebab', 'larat', 'lrt']</t>
         </is>
       </c>
     </row>
@@ -15454,7 +17424,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>['indo', 'gue', 'males', 'jalan', 'gegara', 'kali', 'cat', 'call', 'gue', 'nunggu', 'grab', 'pinggir', 'jalan', 'cat', 'call', 'anjinggggg', 'cat', 'call', 'risih', 'banget', 'gue', 'jalan', 'rumah', 'cat', 'call', 'bangsul']</t>
+          <t>['indonesia', 'gue', 'malas', 'jalan', 'gegara', 'berkali', 'cat', 'call', 'gue', 'menunggu', 'grab', 'pinggir', 'jalan', 'cat', 'call', 'anjinggggg', 'cat', 'call', 'risih', 'banget', 'gue', 'jalan', 'rumah', 'cat', 'call', 'bangsul']</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>['indonesia', 'gue', 'malas', 'jalan', 'gegara', 'kali', 'cat', 'call', 'gue', 'tunggu', 'grab', 'pinggir', 'jalan', 'cat', 'call', 'anjinggggg', 'cat', 'call', 'risih', 'banget', 'gue', 'jalan', 'rumah', 'cat', 'call', 'bangsul']</t>
         </is>
       </c>
     </row>
@@ -15492,7 +17467,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>['lusa', 'kemarin', 'ko', 'berani', 'ngelakuin', 'bundir', 'asa', 'kang', 'grab', 'gedor', 'sadar', 'afternya', 'degdegkan', 'gila', 'ko', 'berani', 'gue', 'hahaha']</t>
+          <t>['lusa', 'kemarin', 'kok', 'berani', 'melakukan', 'bundir', 'berasa', 'kang', 'grab', 'gedor', 'sadar', 'afternya', 'degdegkan', 'gila', 'kok', 'berani', 'gue', 'hahaha']</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>['lusa', 'kemarin', 'kok', 'berani', 'laku', 'bundir', 'asa', 'kang', 'grab', 'gedor', 'sadar', 'afternya', 'degdegkan', 'gila', 'kok', 'berani', 'gue', 'hahaha']</t>
         </is>
       </c>
     </row>
@@ -15530,7 +17510,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>['paham', 'ngomong', 'grab', 'medan', 'besok', 'gas', 'moga', 'besok', 'order', 'amin']</t>
+          <t>['paham', 'mengomong', 'grab', 'medan', 'besok', 'gas', 'semoga', 'besok', 'orderan', 'amin']</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>['paham', 'omong', 'grab', 'medan', 'besok', 'gas', 'moga', 'besok', 'order', 'amin']</t>
         </is>
       </c>
     </row>
@@ -15568,7 +17553,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>['dapet', 'iklan', 'grab', 'detik']</t>
+          <t>['dapat', 'iklan', 'grab', 'detik']</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>['dapat', 'iklan', 'grab', 'detik']</t>
         </is>
       </c>
     </row>
@@ -15609,6 +17599,11 @@
           <t>['coba', 'grabgofud', 'sopi']</t>
         </is>
       </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>['coba', 'grabgofud', 'sopi']</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -15644,7 +17639,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>['nyari', 'promo', 'grab']</t>
+          <t>['mencari', 'promo', 'grab']</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>['cari', 'promo', 'grab']</t>
         </is>
       </c>
     </row>
@@ -15682,7 +17682,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>['pstu', 'pagi', 'jumaat', 'time', 'smpai', 'jb', 'pasang', 'grab', 'rumah', 'pstu', 'ckp', 'air', 'kt', 'kg', 'karat', 'diam', 'lek', 'lek', 'je', 'mak', 'rmh', 'besok', 'ngadu']</t>
+          <t>['pstu', 'pagi', 'jumaat', 'time', 'sampai', 'jb', 'pasang', 'grab', 'rumah', 'pstu', 'cukup', 'air', 'kita', 'kg', 'karat', 'diam', 'lek', 'lek', 'je', 'mak', 'rumah', 'besoknya', 'mengadu']</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>['pstu', 'pagi', 'jumaat', 'time', 'sampai', 'jb', 'pasang', 'grab', 'rumah', 'pstu', 'cukup', 'air', 'kita', 'kg', 'karat', 'diam', 'lek', 'lek', 'je', 'mak', 'rumah', 'besok', 'adu']</t>
         </is>
       </c>
     </row>
@@ -15720,7 +17725,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>['grab', 'muncul', 'reward', 'gue', 'udh', 'bayar', 'anjir', 'rebu']</t>
+          <t>['grab', 'muncul', 'reward', 'gue', 'sudah', 'bayar', 'anjir', 'rebu']</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>['grab', 'muncul', 'reward', 'gue', 'sudah', 'bayar', 'anjir', 'rebu']</t>
         </is>
       </c>
     </row>
@@ -15758,7 +17768,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>['pas', 'anter', 'pulang', 'engga', 'malem', 'gue', 'mikir', 'gue', 'sasimo', 'gampang', 'aaaa', 'nang', 'banget', 'anjirrr', 'pdahal', 'hemat', 'duit', 'grab', 'lumayan']</t>
+          <t>['pas', 'anter', 'pulang', 'enggak', 'malam', 'gue', 'mikir', 'gue', 'sasimo', 'gampangan', 'aaaa', 'menangis', 'banget', 'anjir', 'padahal', 'hemat', 'duit', 'grab', 'lumayan']</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>['pas', 'anter', 'pulang', 'enggak', 'malam', 'gue', 'mikir', 'gue', 'sasimo', 'gampang', 'aaaa', 'menang', 'banget', 'anjir', 'padahal', 'hemat', 'duit', 'grab', 'lumayan']</t>
         </is>
       </c>
     </row>
@@ -15796,7 +17811,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>['situ', 'bolakbalik', 'liat', 'situ', 'gue', 'gue', 'duduk', 'ruang', 'tamu', 'nunggu', 'grab']</t>
+          <t>['situ', 'bolakbalik', 'kelihatan', 'situ', 'gue', 'gue', 'duduk', 'ruang', 'tamu', 'menunggu', 'grab']</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>['situ', 'bolakbalik', 'lihat', 'situ', 'gue', 'gue', 'duduk', 'ruang', 'tamu', 'tunggu', 'grab']</t>
         </is>
       </c>
     </row>
@@ -15834,6 +17854,11 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
+          <t>['malemmalem', 'otakku', 'berpikir', 'besok', 'bus', 'rute', 'jalan', 'kaki', 'grab', 'angkot', 'terbang']</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
           <t>['malemmalem', 'otak', 'pikir', 'besok', 'bus', 'rute', 'jalan', 'kaki', 'grab', 'angkot', 'terbang']</t>
         </is>
       </c>
@@ -15872,7 +17897,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>['betull', 'ak', 'grab', 'jalan']</t>
+          <t>['betull', 'aku', 'grab', 'jalan']</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>['betull', 'aku', 'grab', 'jalan']</t>
         </is>
       </c>
     </row>
@@ -15913,6 +17943,11 @@
           <t>['abang', 'grab', 'jalan', 'pintas', 'hati', 'mu']</t>
         </is>
       </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>['abang', 'grab', 'jalan', 'pintas', 'hati', 'mu']</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -15948,7 +17983,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>['ckp', 'pasal', 'transport', 'grab', 'taman', 'meyedihkan', 'syukur', 'sbb', 'rumah']</t>
+          <t>['cukup', 'pasal', 'transport', 'grab', 'taman', 'meyedihkan', 'bersyukur', 'sebab', 'rumah']</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>['cukup', 'pasal', 'transport', 'grab', 'taman', 'meyedihkan', 'syukur', 'sebab', 'rumah']</t>
         </is>
       </c>
     </row>

--- a/TextPreprocessing.xlsx
+++ b/TextPreprocessing.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>tweet_normalized</t>
+          <t>steeming</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -493,16 +493,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>donavistaj</t>
+          <t>dollfaceAngie88</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>santai ada gojek chat atau worst case tinggal tambah fitur di peduli lindungi</t>
+          <t>selalu senang naik gojek</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -510,22 +510,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['santai', 'ada', 'gojek', 'chat', 'atau', 'worst', 'case', 'tinggal', 'tambah', 'fitur', 'di', 'peduli', 'lindungi']</t>
+          <t>['selalu', 'senang', 'naik', 'gojek']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['santai', 'gojek', 'chat', 'worst', 'case', 'tinggal', 'fitur', 'peduli', 'lindungi']</t>
+          <t>['senang', 'gojek']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['santai', 'gojek', 'chat', 'worst', 'case', 'tinggal', 'fitur', 'peduli', 'lindungi']</t>
+          <t>['senang', 'gojek']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -536,39 +536,39 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hezalnutlatte</t>
+          <t>465O5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>prifad gua naek gojek dulu ye semoga turun lu bedua udh menang</t>
+          <t>pelayanan gojek jelek</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['prifad', 'gua', 'naek', 'gojek', 'dulu', 'ye', 'semoga', 'turun', 'lu', 'bedua', 'udh', 'menang']</t>
+          <t>['pelayanan', 'gojek', 'jelek']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['prifad', 'gua', 'naek', 'gojek', 'ye', 'semoga', 'turun', 'bedua', 'udh', 'menang']</t>
+          <t>['pelayanan', 'gojek', 'jelek']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['prifad', 'gua', 'naik', 'gojek', 'ye', 'semoga', 'turun', 'berdua', 'sudah', 'menang']</t>
+          <t>['layan', 'gojek', 'jelek']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
